--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>257.2</v>
+        <v>263.5</v>
       </c>
       <c r="C2" t="n">
-        <v>257.1</v>
+        <v>263.5</v>
       </c>
       <c r="D2" t="n">
-        <v>257.2</v>
+        <v>263.5</v>
       </c>
       <c r="E2" t="n">
-        <v>257.1</v>
+        <v>263.5</v>
       </c>
       <c r="F2" t="n">
-        <v>12196.3677</v>
+        <v>706.4060721062618</v>
       </c>
       <c r="G2" t="n">
-        <v>259.2066666666664</v>
+        <v>-10629.18026042855</v>
       </c>
       <c r="H2" t="n">
-        <v>260.5116666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C3" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="D3" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E3" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="F3" t="n">
-        <v>129.7889</v>
+        <v>8671.3652</v>
       </c>
       <c r="G3" t="n">
-        <v>259.3266666666665</v>
+        <v>-19300.54546042855</v>
       </c>
       <c r="H3" t="n">
-        <v>260.4950000000001</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C4" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D4" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E4" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F4" t="n">
-        <v>2778.1374</v>
+        <v>1239.8261</v>
       </c>
       <c r="G4" t="n">
-        <v>259.3266666666665</v>
+        <v>-18060.71936042855</v>
       </c>
       <c r="H4" t="n">
-        <v>260.4783333333334</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>259</v>
-      </c>
-      <c r="L4" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="C5" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="D5" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="E5" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="F5" t="n">
-        <v>1924.572</v>
+        <v>4038.1707</v>
       </c>
       <c r="G5" t="n">
-        <v>259.1599999999998</v>
+        <v>-22098.89006042855</v>
       </c>
       <c r="H5" t="n">
-        <v>260.4716666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>259</v>
-      </c>
-      <c r="L5" t="n">
-        <v>257.1</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="C6" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="D6" t="n">
-        <v>259.5</v>
+        <v>260.9</v>
       </c>
       <c r="E6" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="F6" t="n">
-        <v>6475.428</v>
+        <v>1411.5954</v>
       </c>
       <c r="G6" t="n">
-        <v>258.9933333333331</v>
+        <v>-22098.89006042855</v>
       </c>
       <c r="H6" t="n">
-        <v>260.4783333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="C7" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="D7" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="E7" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>1.5333</v>
       </c>
       <c r="G7" t="n">
-        <v>258.8266666666665</v>
+        <v>-22100.42336042855</v>
       </c>
       <c r="H7" t="n">
-        <v>260.3033333333334</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,44 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>259.5</v>
+        <v>258</v>
       </c>
       <c r="C8" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="D8" t="n">
-        <v>259.5</v>
+        <v>258</v>
       </c>
       <c r="E8" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="F8" t="n">
-        <v>3080.5686</v>
+        <v>321.0498</v>
       </c>
       <c r="G8" t="n">
-        <v>258.6599999999998</v>
+        <v>-22421.47316042855</v>
       </c>
       <c r="H8" t="n">
-        <v>260.2550000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -744,40 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>259.5</v>
+        <v>256.8</v>
       </c>
       <c r="C9" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="D9" t="n">
-        <v>259.5</v>
+        <v>256.8</v>
       </c>
       <c r="E9" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="F9" t="n">
-        <v>3666.9426</v>
+        <v>2090.2814</v>
       </c>
       <c r="G9" t="n">
-        <v>258.6266666666664</v>
+        <v>-22421.47316042855</v>
       </c>
       <c r="H9" t="n">
-        <v>260.2550000000001</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -786,44 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="C10" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="D10" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="E10" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1333.4712</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>258.7266666666665</v>
+        <v>-17421.47316042855</v>
       </c>
       <c r="H10" t="n">
-        <v>260.2133333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -832,44 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="C11" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="D11" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="E11" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="F11" t="n">
-        <v>59.4506</v>
+        <v>1247.068</v>
       </c>
       <c r="G11" t="n">
-        <v>258.9266666666664</v>
+        <v>-17421.47316042855</v>
       </c>
       <c r="H11" t="n">
-        <v>260.1966666666668</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -878,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="C12" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="D12" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="E12" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="F12" t="n">
-        <v>333.7693156153846</v>
+        <v>450.6796</v>
       </c>
       <c r="G12" t="n">
-        <v>258.9399999999998</v>
+        <v>-17421.47316042855</v>
       </c>
       <c r="H12" t="n">
-        <v>260.1800000000001</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -916,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="C13" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="D13" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="E13" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="F13" t="n">
-        <v>1166.7356</v>
+        <v>233.9967</v>
       </c>
       <c r="G13" t="n">
-        <v>259.0666666666664</v>
+        <v>-17187.47646042855</v>
       </c>
       <c r="H13" t="n">
-        <v>260.1950000000001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="C14" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="D14" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="E14" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="F14" t="n">
-        <v>392.8992</v>
+        <v>1850.986</v>
       </c>
       <c r="G14" t="n">
-        <v>259.3999999999997</v>
+        <v>-15336.49046042855</v>
       </c>
       <c r="H14" t="n">
-        <v>260.1950000000001</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -992,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C15" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D15" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E15" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
-        <v>259.7333333333331</v>
+        <v>-15316.49046042855</v>
       </c>
       <c r="H15" t="n">
-        <v>260.1783333333334</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1030,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C16" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D16" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E16" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F16" t="n">
-        <v>1322.9899</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>259.9999999999998</v>
+        <v>-15316.49046042855</v>
       </c>
       <c r="H16" t="n">
-        <v>260.1783333333334</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="C17" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="D17" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="E17" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="F17" t="n">
-        <v>5700.0328</v>
+        <v>4.3737</v>
       </c>
       <c r="G17" t="n">
-        <v>260.3599999999998</v>
+        <v>-15320.86416042855</v>
       </c>
       <c r="H17" t="n">
-        <v>260.1866666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1106,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>262.5</v>
+        <v>259</v>
       </c>
       <c r="C18" t="n">
-        <v>263.5</v>
+        <v>259</v>
       </c>
       <c r="D18" t="n">
-        <v>263.5</v>
+        <v>259</v>
       </c>
       <c r="E18" t="n">
-        <v>262.5</v>
+        <v>259</v>
       </c>
       <c r="F18" t="n">
-        <v>640.3293278937382</v>
+        <v>108.4083</v>
       </c>
       <c r="G18" t="n">
-        <v>260.6599999999997</v>
+        <v>-15212.45586042855</v>
       </c>
       <c r="H18" t="n">
-        <v>260.2050000000001</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>263.7</v>
+        <v>261</v>
       </c>
       <c r="C19" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D19" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E19" t="n">
-        <v>263.7</v>
+        <v>261</v>
       </c>
       <c r="F19" t="n">
-        <v>6856.9994</v>
+        <v>2188.068740458015</v>
       </c>
       <c r="G19" t="n">
-        <v>261.0599999999997</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H19" t="n">
-        <v>260.2483333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="C20" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="D20" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="E20" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="F20" t="n">
-        <v>6366.4798</v>
+        <v>5849.620859541985</v>
       </c>
       <c r="G20" t="n">
-        <v>261.5133333333331</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H20" t="n">
-        <v>260.3133333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>266.4</v>
+        <v>262</v>
       </c>
       <c r="C21" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D21" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E21" t="n">
-        <v>266.4</v>
+        <v>262</v>
       </c>
       <c r="F21" t="n">
-        <v>2052.8027</v>
+        <v>3040.2836</v>
       </c>
       <c r="G21" t="n">
-        <v>262.0799999999998</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H21" t="n">
-        <v>260.3966666666668</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1258,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>268.5</v>
+        <v>262</v>
       </c>
       <c r="C22" t="n">
-        <v>268.8</v>
+        <v>262</v>
       </c>
       <c r="D22" t="n">
-        <v>268.8</v>
+        <v>262</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5</v>
+        <v>262</v>
       </c>
       <c r="F22" t="n">
-        <v>6361.553</v>
+        <v>4.0458015267175e-05</v>
       </c>
       <c r="G22" t="n">
-        <v>262.6999999999998</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H22" t="n">
-        <v>260.4933333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1296,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C23" t="n">
-        <v>266.3</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E23" t="n">
-        <v>266.3</v>
+        <v>260</v>
       </c>
       <c r="F23" t="n">
-        <v>7228.0971</v>
+        <v>129.5346</v>
       </c>
       <c r="G23" t="n">
-        <v>263.1533333333331</v>
+        <v>-13153.92171997054</v>
       </c>
       <c r="H23" t="n">
-        <v>260.5400000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1334,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C24" t="n">
-        <v>266.3</v>
+        <v>258</v>
       </c>
       <c r="D24" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E24" t="n">
-        <v>266.3</v>
+        <v>258</v>
       </c>
       <c r="F24" t="n">
-        <v>9014.2678</v>
+        <v>108.4083</v>
       </c>
       <c r="G24" t="n">
-        <v>263.6066666666665</v>
+        <v>-13262.33001997054</v>
       </c>
       <c r="H24" t="n">
-        <v>260.6283333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1372,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="C25" t="n">
-        <v>262.8</v>
+        <v>257</v>
       </c>
       <c r="D25" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="E25" t="n">
-        <v>262.8</v>
+        <v>257</v>
       </c>
       <c r="F25" t="n">
-        <v>1426.3233</v>
+        <v>9396</v>
       </c>
       <c r="G25" t="n">
-        <v>263.8266666666665</v>
+        <v>-22658.33001997054</v>
       </c>
       <c r="H25" t="n">
-        <v>260.59</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1410,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>266.2</v>
+        <v>259</v>
       </c>
       <c r="C26" t="n">
-        <v>266.2</v>
+        <v>259.8</v>
       </c>
       <c r="D26" t="n">
-        <v>266.2</v>
+        <v>259.8</v>
       </c>
       <c r="E26" t="n">
-        <v>266.2</v>
+        <v>259</v>
       </c>
       <c r="F26" t="n">
-        <v>16.8761</v>
+        <v>3888.389636951501</v>
       </c>
       <c r="G26" t="n">
-        <v>264.2399999999998</v>
+        <v>-18769.94038301903</v>
       </c>
       <c r="H26" t="n">
-        <v>260.6583333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>266.2</v>
+        <v>259.8</v>
       </c>
       <c r="C27" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D27" t="n">
-        <v>266.2</v>
+        <v>260</v>
       </c>
       <c r="E27" t="n">
-        <v>266</v>
+        <v>259.8</v>
       </c>
       <c r="F27" t="n">
-        <v>3338.2287</v>
+        <v>38.46474743311423</v>
       </c>
       <c r="G27" t="n">
-        <v>264.6399999999998</v>
+        <v>-18731.47563558592</v>
       </c>
       <c r="H27" t="n">
-        <v>260.7233333333334</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1486,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>266</v>
+        <v>257.5</v>
       </c>
       <c r="C28" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D28" t="n">
-        <v>266</v>
+        <v>257.5</v>
       </c>
       <c r="E28" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F28" t="n">
-        <v>4.0361</v>
+        <v>14668.9176</v>
       </c>
       <c r="G28" t="n">
-        <v>264.9133333333331</v>
+        <v>-33400.39323558592</v>
       </c>
       <c r="H28" t="n">
-        <v>260.8066666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1524,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C29" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D29" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E29" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>897.7982</v>
       </c>
       <c r="G29" t="n">
-        <v>265.1799999999998</v>
+        <v>-33400.39323558592</v>
       </c>
       <c r="H29" t="n">
-        <v>260.89</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="C30" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="D30" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="E30" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="F30" t="n">
-        <v>1198.1548</v>
+        <v>129.7889</v>
       </c>
       <c r="G30" t="n">
-        <v>265.2333333333332</v>
+        <v>-33270.60433558592</v>
       </c>
       <c r="H30" t="n">
-        <v>260.8866666666667</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1600,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>264</v>
+        <v>257.2</v>
       </c>
       <c r="C31" t="n">
-        <v>264</v>
+        <v>257.1</v>
       </c>
       <c r="D31" t="n">
-        <v>264</v>
+        <v>257.2</v>
       </c>
       <c r="E31" t="n">
-        <v>264</v>
+        <v>257.1</v>
       </c>
       <c r="F31" t="n">
-        <v>119.6427</v>
+        <v>12196.3677</v>
       </c>
       <c r="G31" t="n">
-        <v>265.3666666666665</v>
+        <v>-45466.97203558592</v>
       </c>
       <c r="H31" t="n">
-        <v>260.895</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C32" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D32" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E32" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F32" t="n">
-        <v>119.6427</v>
+        <v>129.7889</v>
       </c>
       <c r="G32" t="n">
-        <v>265.5333333333331</v>
+        <v>-45337.18313558592</v>
       </c>
       <c r="H32" t="n">
-        <v>260.9283333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C33" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D33" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E33" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F33" t="n">
-        <v>380.3573</v>
+        <v>2778.1374</v>
       </c>
       <c r="G33" t="n">
-        <v>265.6333333333332</v>
+        <v>-45337.18313558592</v>
       </c>
       <c r="H33" t="n">
-        <v>260.9533333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1714,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="C34" t="n">
-        <v>265.7</v>
+        <v>259.5</v>
       </c>
       <c r="D34" t="n">
-        <v>265.7</v>
+        <v>259.5</v>
       </c>
       <c r="E34" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="F34" t="n">
-        <v>20.9958</v>
+        <v>1924.572</v>
       </c>
       <c r="G34" t="n">
-        <v>265.6799999999998</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H34" t="n">
-        <v>261.0566666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1752,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>263.1</v>
+        <v>259.5</v>
       </c>
       <c r="C35" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="D35" t="n">
-        <v>263.1</v>
+        <v>259.5</v>
       </c>
       <c r="E35" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="F35" t="n">
-        <v>5384.482</v>
+        <v>6475.428</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4599999999998</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H35" t="n">
-        <v>261.09</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1790,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="C36" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="D36" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="E36" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="F36" t="n">
-        <v>98.5145</v>
+        <v>2000</v>
       </c>
       <c r="G36" t="n">
-        <v>265.1266666666664</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H36" t="n">
-        <v>261.155</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1828,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>262.8</v>
+        <v>259.5</v>
       </c>
       <c r="C37" t="n">
-        <v>262.6</v>
+        <v>259.5</v>
       </c>
       <c r="D37" t="n">
-        <v>262.8</v>
+        <v>259.5</v>
       </c>
       <c r="E37" t="n">
-        <v>262.6</v>
+        <v>259.5</v>
       </c>
       <c r="F37" t="n">
-        <v>9583.248299999999</v>
+        <v>3080.5686</v>
       </c>
       <c r="G37" t="n">
-        <v>264.7133333333331</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H37" t="n">
-        <v>261.2133333333334</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="C38" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="D38" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="E38" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="F38" t="n">
-        <v>5610.0638</v>
+        <v>3666.9426</v>
       </c>
       <c r="G38" t="n">
-        <v>264.3333333333331</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H38" t="n">
-        <v>261.24</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1904,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>261</v>
+        <v>259.5</v>
       </c>
       <c r="C39" t="n">
-        <v>261.6</v>
+        <v>259.5</v>
       </c>
       <c r="D39" t="n">
-        <v>261.6</v>
+        <v>259.5</v>
       </c>
       <c r="E39" t="n">
-        <v>261</v>
+        <v>259.5</v>
       </c>
       <c r="F39" t="n">
-        <v>1932.4911</v>
+        <v>1333.4712</v>
       </c>
       <c r="G39" t="n">
-        <v>264.0199999999998</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H39" t="n">
-        <v>261.3216666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1942,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C40" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D40" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E40" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F40" t="n">
-        <v>76.7927</v>
+        <v>59.4506</v>
       </c>
       <c r="G40" t="n">
-        <v>264.0333333333331</v>
+        <v>-43353.16053558593</v>
       </c>
       <c r="H40" t="n">
-        <v>261.4266666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="C41" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="D41" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="E41" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="F41" t="n">
-        <v>1213.0931</v>
+        <v>333.7693156153846</v>
       </c>
       <c r="G41" t="n">
-        <v>263.7733333333332</v>
+        <v>-43353.16053558593</v>
       </c>
       <c r="H41" t="n">
-        <v>261.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2018,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>262.1</v>
+        <v>261.9</v>
       </c>
       <c r="C42" t="n">
-        <v>262</v>
+        <v>261.9</v>
       </c>
       <c r="D42" t="n">
-        <v>262.1</v>
+        <v>261.9</v>
       </c>
       <c r="E42" t="n">
-        <v>262</v>
+        <v>261.9</v>
       </c>
       <c r="F42" t="n">
-        <v>5554.1783</v>
+        <v>1166.7356</v>
       </c>
       <c r="G42" t="n">
-        <v>263.5066666666665</v>
+        <v>-42186.42493558593</v>
       </c>
       <c r="H42" t="n">
-        <v>261.6016666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2068,24 +1880,21 @@
         <v>262</v>
       </c>
       <c r="F43" t="n">
-        <v>9872.8356</v>
+        <v>392.8992</v>
       </c>
       <c r="G43" t="n">
-        <v>263.2399999999998</v>
+        <v>-41793.52573558593</v>
       </c>
       <c r="H43" t="n">
-        <v>261.6866666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2094,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C44" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D44" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E44" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F44" t="n">
-        <v>4.0361</v>
+        <v>500</v>
       </c>
       <c r="G44" t="n">
-        <v>263.0399999999998</v>
+        <v>-41793.52573558593</v>
       </c>
       <c r="H44" t="n">
-        <v>261.7866666666667</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2132,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="C45" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="D45" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="E45" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="F45" t="n">
-        <v>4.2365</v>
+        <v>1322.9899</v>
       </c>
       <c r="G45" t="n">
-        <v>263.1933333333332</v>
+        <v>-41793.52573558593</v>
       </c>
       <c r="H45" t="n">
-        <v>261.89</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2170,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="C46" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="D46" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="E46" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="F46" t="n">
-        <v>1147.2916</v>
+        <v>5700.0328</v>
       </c>
       <c r="G46" t="n">
-        <v>263.2666666666665</v>
+        <v>-36093.49293558593</v>
       </c>
       <c r="H46" t="n">
-        <v>261.9916666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="C47" t="n">
-        <v>265.1</v>
+        <v>263.5</v>
       </c>
       <c r="D47" t="n">
-        <v>265.1</v>
+        <v>263.5</v>
       </c>
       <c r="E47" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>640.3293278937382</v>
       </c>
       <c r="G47" t="n">
-        <v>263.2733333333333</v>
+        <v>-35453.16360769219</v>
       </c>
       <c r="H47" t="n">
-        <v>262.0933333333334</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2246,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="C48" t="n">
-        <v>265.1</v>
+        <v>265</v>
       </c>
       <c r="D48" t="n">
-        <v>265.1</v>
+        <v>265</v>
       </c>
       <c r="E48" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="F48" t="n">
-        <v>487.1774</v>
+        <v>6856.9994</v>
       </c>
       <c r="G48" t="n">
-        <v>263.2799999999999</v>
+        <v>-28596.16420769219</v>
       </c>
       <c r="H48" t="n">
-        <v>262.225</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="C49" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="D49" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="E49" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="F49" t="n">
-        <v>4.2387</v>
+        <v>6366.4798</v>
       </c>
       <c r="G49" t="n">
-        <v>263.2466666666666</v>
+        <v>-22229.68440769218</v>
       </c>
       <c r="H49" t="n">
-        <v>262.3283333333334</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>265.1</v>
+        <v>266.4</v>
       </c>
       <c r="C50" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="D50" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="E50" t="n">
-        <v>265.1</v>
+        <v>266.4</v>
       </c>
       <c r="F50" t="n">
-        <v>7.647</v>
+        <v>2052.8027</v>
       </c>
       <c r="G50" t="n">
-        <v>263.3866666666666</v>
+        <v>-20176.88170769218</v>
       </c>
       <c r="H50" t="n">
-        <v>262.3800000000001</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2360,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>265.1</v>
+        <v>268.5</v>
       </c>
       <c r="C51" t="n">
-        <v>265.1</v>
+        <v>268.8</v>
       </c>
       <c r="D51" t="n">
-        <v>265.1</v>
+        <v>268.8</v>
       </c>
       <c r="E51" t="n">
-        <v>265.1</v>
+        <v>268.5</v>
       </c>
       <c r="F51" t="n">
-        <v>5</v>
+        <v>6361.553</v>
       </c>
       <c r="G51" t="n">
-        <v>263.5266666666666</v>
+        <v>-13815.32870769218</v>
       </c>
       <c r="H51" t="n">
-        <v>262.4316666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2398,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="C52" t="n">
-        <v>265.1</v>
+        <v>266.3</v>
       </c>
       <c r="D52" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="E52" t="n">
-        <v>265.1</v>
+        <v>266.3</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1756</v>
+        <v>7228.0971</v>
       </c>
       <c r="G52" t="n">
-        <v>263.6933333333333</v>
+        <v>-21043.42580769218</v>
       </c>
       <c r="H52" t="n">
-        <v>262.4833333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2436,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C53" t="n">
-        <v>263</v>
+        <v>266.3</v>
       </c>
       <c r="D53" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E53" t="n">
-        <v>263</v>
+        <v>266.3</v>
       </c>
       <c r="F53" t="n">
-        <v>887.7353000000001</v>
+        <v>9014.2678</v>
       </c>
       <c r="G53" t="n">
-        <v>263.8533333333333</v>
+        <v>-21043.42580769218</v>
       </c>
       <c r="H53" t="n">
-        <v>262.5000000000001</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2474,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>260.7</v>
+        <v>262.8</v>
       </c>
       <c r="C54" t="n">
-        <v>260.6</v>
+        <v>262.8</v>
       </c>
       <c r="D54" t="n">
-        <v>260.7</v>
+        <v>262.8</v>
       </c>
       <c r="E54" t="n">
-        <v>260.6</v>
+        <v>262.8</v>
       </c>
       <c r="F54" t="n">
-        <v>4504.1337</v>
+        <v>1426.3233</v>
       </c>
       <c r="G54" t="n">
-        <v>263.7866666666666</v>
+        <v>-22469.74910769218</v>
       </c>
       <c r="H54" t="n">
-        <v>262.51</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="C55" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="D55" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="E55" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="F55" t="n">
-        <v>1349.0503</v>
+        <v>16.8761</v>
       </c>
       <c r="G55" t="n">
-        <v>263.6266666666667</v>
+        <v>-22452.87300769218</v>
       </c>
       <c r="H55" t="n">
-        <v>262.5533333333334</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="C56" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="D56" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="E56" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="F56" t="n">
-        <v>3207.6931</v>
+        <v>3338.2287</v>
       </c>
       <c r="G56" t="n">
-        <v>263.5133333333333</v>
+        <v>-25791.10170769218</v>
       </c>
       <c r="H56" t="n">
-        <v>262.6133333333334</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="C57" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="D57" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="E57" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="F57" t="n">
-        <v>1071.5148</v>
+        <v>4.0361</v>
       </c>
       <c r="G57" t="n">
-        <v>263.42</v>
+        <v>-25791.10170769218</v>
       </c>
       <c r="H57" t="n">
-        <v>262.6266666666668</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="C58" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="D58" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="E58" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="F58" t="n">
-        <v>23.4492</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>263.4733333333334</v>
+        <v>-25791.10170769218</v>
       </c>
       <c r="H58" t="n">
-        <v>262.6733333333334</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2664,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>260</v>
+        <v>262.8</v>
       </c>
       <c r="C59" t="n">
-        <v>260</v>
+        <v>262.8</v>
       </c>
       <c r="D59" t="n">
-        <v>260</v>
+        <v>262.8</v>
       </c>
       <c r="E59" t="n">
-        <v>260</v>
+        <v>262.4</v>
       </c>
       <c r="F59" t="n">
-        <v>23.4492</v>
+        <v>1198.1548</v>
       </c>
       <c r="G59" t="n">
-        <v>263.2733333333334</v>
+        <v>-26989.25650769218</v>
       </c>
       <c r="H59" t="n">
-        <v>262.7233333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2702,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C60" t="n">
-        <v>259.5</v>
+        <v>264</v>
       </c>
       <c r="D60" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E60" t="n">
-        <v>259.5</v>
+        <v>264</v>
       </c>
       <c r="F60" t="n">
-        <v>291.684</v>
+        <v>119.6427</v>
       </c>
       <c r="G60" t="n">
-        <v>262.9</v>
+        <v>-26869.61380769218</v>
       </c>
       <c r="H60" t="n">
-        <v>262.7650000000001</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C61" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D61" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E61" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F61" t="n">
-        <v>127.3468</v>
+        <v>119.6427</v>
       </c>
       <c r="G61" t="n">
-        <v>262.6933333333333</v>
+        <v>-26749.97110769218</v>
       </c>
       <c r="H61" t="n">
-        <v>262.8316666666668</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="C62" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="D62" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="E62" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="F62" t="n">
-        <v>1772.2325</v>
+        <v>380.3573</v>
       </c>
       <c r="G62" t="n">
-        <v>262.5266666666667</v>
+        <v>-26749.97110769218</v>
       </c>
       <c r="H62" t="n">
-        <v>262.9233333333334</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2816,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="C63" t="n">
-        <v>261.5</v>
+        <v>265.7</v>
       </c>
       <c r="D63" t="n">
-        <v>261.5</v>
+        <v>265.7</v>
       </c>
       <c r="E63" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="F63" t="n">
-        <v>4.0361</v>
+        <v>20.9958</v>
       </c>
       <c r="G63" t="n">
-        <v>262.2866666666666</v>
+        <v>-26728.97530769218</v>
       </c>
       <c r="H63" t="n">
-        <v>262.9650000000001</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2854,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>262.4</v>
+        <v>263.1</v>
       </c>
       <c r="C64" t="n">
-        <v>262.4</v>
+        <v>263</v>
       </c>
       <c r="D64" t="n">
-        <v>262.4</v>
+        <v>263.1</v>
       </c>
       <c r="E64" t="n">
-        <v>262.4</v>
+        <v>263</v>
       </c>
       <c r="F64" t="n">
-        <v>10</v>
+        <v>5384.482</v>
       </c>
       <c r="G64" t="n">
-        <v>262.1</v>
+        <v>-32113.45730769218</v>
       </c>
       <c r="H64" t="n">
-        <v>263.0216666666668</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2892,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="C65" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="D65" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="E65" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="F65" t="n">
-        <v>3142.5384</v>
+        <v>98.5145</v>
       </c>
       <c r="G65" t="n">
-        <v>261.86</v>
+        <v>-32113.45730769218</v>
       </c>
       <c r="H65" t="n">
-        <v>263.0550000000001</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>260.8</v>
+        <v>262.8</v>
       </c>
       <c r="C66" t="n">
-        <v>260.8</v>
+        <v>262.6</v>
       </c>
       <c r="D66" t="n">
-        <v>260.8</v>
+        <v>262.8</v>
       </c>
       <c r="E66" t="n">
-        <v>260.8</v>
+        <v>262.6</v>
       </c>
       <c r="F66" t="n">
-        <v>3000</v>
+        <v>9583.248299999999</v>
       </c>
       <c r="G66" t="n">
-        <v>261.5733333333333</v>
+        <v>-41696.70560769218</v>
       </c>
       <c r="H66" t="n">
-        <v>263.0766666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="C67" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="D67" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="E67" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="F67" t="n">
-        <v>7585</v>
+        <v>5610.0638</v>
       </c>
       <c r="G67" t="n">
-        <v>261.2866666666666</v>
+        <v>-47306.76940769218</v>
       </c>
       <c r="H67" t="n">
-        <v>263.0983333333334</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3006,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>262.3</v>
+        <v>261</v>
       </c>
       <c r="C68" t="n">
-        <v>262.3</v>
+        <v>261.6</v>
       </c>
       <c r="D68" t="n">
-        <v>262.3</v>
+        <v>261.6</v>
       </c>
       <c r="E68" t="n">
-        <v>262.3</v>
+        <v>261</v>
       </c>
       <c r="F68" t="n">
-        <v>2</v>
+        <v>1932.4911</v>
       </c>
       <c r="G68" t="n">
-        <v>261.24</v>
+        <v>-45374.27830769218</v>
       </c>
       <c r="H68" t="n">
-        <v>263.145</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="C69" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="D69" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="E69" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>76.7927</v>
       </c>
       <c r="G69" t="n">
-        <v>261.3533333333333</v>
+        <v>-45297.48560769218</v>
       </c>
       <c r="H69" t="n">
-        <v>263.1916666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3082,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>262.1</v>
+        <v>262.3</v>
       </c>
       <c r="C70" t="n">
-        <v>262.2</v>
+        <v>262.3</v>
       </c>
       <c r="D70" t="n">
-        <v>262.2</v>
+        <v>262.3</v>
       </c>
       <c r="E70" t="n">
-        <v>262.1</v>
+        <v>262.3</v>
       </c>
       <c r="F70" t="n">
-        <v>278.4560537757437</v>
+        <v>1213.0931</v>
       </c>
       <c r="G70" t="n">
-        <v>261.46</v>
+        <v>-46510.57870769218</v>
       </c>
       <c r="H70" t="n">
-        <v>263.2366666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>262.2</v>
+        <v>262.1</v>
       </c>
       <c r="C71" t="n">
-        <v>262.2</v>
+        <v>262</v>
       </c>
       <c r="D71" t="n">
-        <v>262.2</v>
+        <v>262.1</v>
       </c>
       <c r="E71" t="n">
-        <v>262.2</v>
+        <v>262</v>
       </c>
       <c r="F71" t="n">
-        <v>39.2999</v>
+        <v>5554.1783</v>
       </c>
       <c r="G71" t="n">
-        <v>261.5666666666667</v>
+        <v>-52064.75700769218</v>
       </c>
       <c r="H71" t="n">
-        <v>263.2733333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3170,24 +2895,21 @@
         <v>262</v>
       </c>
       <c r="F72" t="n">
-        <v>141.2</v>
+        <v>9872.8356</v>
       </c>
       <c r="G72" t="n">
-        <v>261.66</v>
+        <v>-52064.75700769218</v>
       </c>
       <c r="H72" t="n">
-        <v>263.3066666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C73" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D73" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E73" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F73" t="n">
-        <v>180.5</v>
+        <v>4.0361</v>
       </c>
       <c r="G73" t="n">
-        <v>261.6066666666666</v>
+        <v>-52060.72090769218</v>
       </c>
       <c r="H73" t="n">
-        <v>263.3083333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3234,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="C74" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="D74" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="E74" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>4.2365</v>
       </c>
       <c r="G74" t="n">
-        <v>261.74</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H74" t="n">
-        <v>263.3083333333334</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3272,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>261.1</v>
+        <v>265.1</v>
       </c>
       <c r="C75" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="D75" t="n">
-        <v>261.1</v>
+        <v>265.1</v>
       </c>
       <c r="E75" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="F75" t="n">
-        <v>1400</v>
+        <v>1147.2916</v>
       </c>
       <c r="G75" t="n">
-        <v>261.84</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H75" t="n">
-        <v>263.2916666666667</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3310,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="C76" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="D76" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="E76" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="F76" t="n">
-        <v>278.4561</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>261.7733333333333</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H76" t="n">
-        <v>263.275</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3348,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="C77" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="D77" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="E77" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="F77" t="n">
-        <v>387.7353</v>
+        <v>487.1774</v>
       </c>
       <c r="G77" t="n">
-        <v>261.6666666666666</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H77" t="n">
-        <v>263.2500000000001</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="C78" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="D78" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="E78" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="F78" t="n">
-        <v>9829.5921</v>
+        <v>4.2387</v>
       </c>
       <c r="G78" t="n">
-        <v>261.6333333333333</v>
+        <v>-52052.24570769218</v>
       </c>
       <c r="H78" t="n">
-        <v>263.2083333333334</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="C79" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="D79" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="E79" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="F79" t="n">
-        <v>11269.7103</v>
+        <v>7.647</v>
       </c>
       <c r="G79" t="n">
-        <v>261.5266666666667</v>
+        <v>-52059.89270769218</v>
       </c>
       <c r="H79" t="n">
-        <v>263.1383333333334</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3462,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="C80" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="D80" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="E80" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="F80" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G80" t="n">
-        <v>261.48</v>
+        <v>-52059.89270769218</v>
       </c>
       <c r="H80" t="n">
-        <v>263.0466666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3500,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="C81" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="D81" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="E81" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>0.1756</v>
       </c>
       <c r="G81" t="n">
-        <v>261.48</v>
+        <v>-52059.89270769218</v>
       </c>
       <c r="H81" t="n">
-        <v>262.9266666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="C82" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="D82" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="E82" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="F82" t="n">
-        <v>2347.2929</v>
+        <v>887.7353000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>261.48</v>
+        <v>-52947.62800769218</v>
       </c>
       <c r="H82" t="n">
-        <v>262.7933333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3576,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>260.8</v>
+        <v>260.7</v>
       </c>
       <c r="C83" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D83" t="n">
         <v>260.7</v>
       </c>
-      <c r="D83" t="n">
-        <v>260.8</v>
-      </c>
       <c r="E83" t="n">
-        <v>260.7</v>
+        <v>260.6</v>
       </c>
       <c r="F83" t="n">
-        <v>3618.0141</v>
+        <v>4504.1337</v>
       </c>
       <c r="G83" t="n">
-        <v>261.3733333333333</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H83" t="n">
-        <v>262.7</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="C84" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="D84" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="E84" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="F84" t="n">
-        <v>1487.1089</v>
+        <v>1349.0503</v>
       </c>
       <c r="G84" t="n">
-        <v>261.2866666666666</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H84" t="n">
-        <v>262.6116666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3652,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>260.7</v>
+        <v>260.6</v>
       </c>
       <c r="C85" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="D85" t="n">
-        <v>260.7</v>
+        <v>260.6</v>
       </c>
       <c r="E85" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="F85" t="n">
-        <v>4754.1372</v>
+        <v>3207.6931</v>
       </c>
       <c r="G85" t="n">
-        <v>261.1733333333333</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H85" t="n">
-        <v>262.5733333333334</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,36 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="C86" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="D86" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="E86" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="F86" t="n">
-        <v>1788.0744</v>
+        <v>1071.5148</v>
       </c>
       <c r="G86" t="n">
-        <v>261.06</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H86" t="n">
-        <v>262.4783333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3728,36 +3408,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="C87" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="D87" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="E87" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="F87" t="n">
-        <v>2499.9256</v>
+        <v>23.4492</v>
       </c>
       <c r="G87" t="n">
-        <v>260.96</v>
+        <v>-57428.31250769217</v>
       </c>
       <c r="H87" t="n">
-        <v>262.3866666666667</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+        <v>260.6</v>
+      </c>
+      <c r="K87" t="n">
+        <v>260.6</v>
+      </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,36 +3447,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="C88" t="n">
-        <v>258.1</v>
+        <v>260</v>
       </c>
       <c r="D88" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="E88" t="n">
-        <v>258.1</v>
+        <v>260</v>
       </c>
       <c r="F88" t="n">
-        <v>4562.218</v>
+        <v>23.4492</v>
       </c>
       <c r="G88" t="n">
-        <v>260.7</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H88" t="n">
-        <v>262.2550000000001</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3804,36 +3488,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="C89" t="n">
         <v>259.5</v>
       </c>
       <c r="D89" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="E89" t="n">
         <v>259.5</v>
       </c>
       <c r="F89" t="n">
-        <v>538</v>
+        <v>291.684</v>
       </c>
       <c r="G89" t="n">
-        <v>260.5333333333334</v>
+        <v>-57743.44570769218</v>
       </c>
       <c r="H89" t="n">
-        <v>262.1466666666668</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,36 +3529,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="C90" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="D90" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="E90" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="F90" t="n">
-        <v>127.7035</v>
+        <v>127.3468</v>
       </c>
       <c r="G90" t="n">
-        <v>260.4333333333333</v>
+        <v>-57616.09890769218</v>
       </c>
       <c r="H90" t="n">
-        <v>262.0916666666668</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,36 +3570,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>259.2</v>
+        <v>262.6</v>
       </c>
       <c r="C91" t="n">
-        <v>258.2</v>
+        <v>262.6</v>
       </c>
       <c r="D91" t="n">
-        <v>259.2</v>
+        <v>262.6</v>
       </c>
       <c r="E91" t="n">
-        <v>258.2</v>
+        <v>262.6</v>
       </c>
       <c r="F91" t="n">
-        <v>630.2430000000001</v>
+        <v>1772.2325</v>
       </c>
       <c r="G91" t="n">
-        <v>260.2466666666667</v>
+        <v>-55843.86640769218</v>
       </c>
       <c r="H91" t="n">
-        <v>261.9950000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,40 +3611,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="C92" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="D92" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="E92" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="F92" t="n">
-        <v>6401.2707</v>
+        <v>4.0361</v>
       </c>
       <c r="G92" t="n">
-        <v>260.1466666666666</v>
+        <v>-55847.90250769218</v>
       </c>
       <c r="H92" t="n">
-        <v>261.9033333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="L92" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,42 +3652,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="C93" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="D93" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="E93" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="F93" t="n">
-        <v>17.7908</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
-        <v>260.0466666666667</v>
+        <v>-55837.90250769218</v>
       </c>
       <c r="H93" t="n">
-        <v>261.8116666666668</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,42 +3695,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="C94" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="D94" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="E94" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="F94" t="n">
-        <v>4930.164</v>
+        <v>3142.5384</v>
       </c>
       <c r="G94" t="n">
-        <v>259.96</v>
+        <v>-58980.44090769217</v>
       </c>
       <c r="H94" t="n">
-        <v>261.7083333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3736,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="C95" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="D95" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="E95" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="F95" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G95" t="n">
-        <v>260.04</v>
+        <v>-61980.44090769217</v>
       </c>
       <c r="H95" t="n">
-        <v>261.6916666666668</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3777,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="C96" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="D96" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="E96" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="F96" t="n">
-        <v>55.5097</v>
+        <v>7585</v>
       </c>
       <c r="G96" t="n">
-        <v>260.1199999999999</v>
+        <v>-61980.44090769217</v>
       </c>
       <c r="H96" t="n">
-        <v>261.6750000000001</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3818,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="C97" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="D97" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="E97" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="F97" t="n">
-        <v>44.4903</v>
+        <v>2</v>
       </c>
       <c r="G97" t="n">
-        <v>260.1999999999999</v>
+        <v>-61978.44090769217</v>
       </c>
       <c r="H97" t="n">
-        <v>261.6650000000001</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3859,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="C98" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="D98" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="E98" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="F98" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>260.1933333333333</v>
+        <v>-61978.44090769217</v>
       </c>
       <c r="H98" t="n">
-        <v>261.6650000000001</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3900,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>260.6</v>
+        <v>262.1</v>
       </c>
       <c r="C99" t="n">
-        <v>260.6</v>
+        <v>262.2</v>
       </c>
       <c r="D99" t="n">
-        <v>260.6</v>
+        <v>262.2</v>
       </c>
       <c r="E99" t="n">
-        <v>260.6</v>
+        <v>262.1</v>
       </c>
       <c r="F99" t="n">
-        <v>741.2</v>
+        <v>278.4560537757437</v>
       </c>
       <c r="G99" t="n">
-        <v>260.1666666666667</v>
+        <v>-62256.89696146792</v>
       </c>
       <c r="H99" t="n">
-        <v>261.6483333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3941,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="C100" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="D100" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="E100" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>39.2999</v>
       </c>
       <c r="G100" t="n">
-        <v>260.2666666666667</v>
+        <v>-62256.89696146792</v>
       </c>
       <c r="H100" t="n">
-        <v>261.6316666666668</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,24 +3994,27 @@
         <v>262</v>
       </c>
       <c r="F101" t="n">
-        <v>387.5633</v>
+        <v>141.2</v>
       </c>
       <c r="G101" t="n">
-        <v>260.3666666666667</v>
+        <v>-62398.09696146791</v>
       </c>
       <c r="H101" t="n">
-        <v>261.6266666666668</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4023,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="C102" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="D102" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="E102" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="F102" t="n">
-        <v>1910.7</v>
+        <v>180.5</v>
       </c>
       <c r="G102" t="n">
-        <v>260.3666666666667</v>
+        <v>-62398.09696146791</v>
       </c>
       <c r="H102" t="n">
-        <v>261.6016666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4064,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="C103" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="D103" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="E103" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="F103" t="n">
-        <v>92.55840000000001</v>
+        <v>12</v>
       </c>
       <c r="G103" t="n">
-        <v>260.5266666666667</v>
+        <v>-62398.09696146791</v>
       </c>
       <c r="H103" t="n">
-        <v>261.5766666666668</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4105,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>259.9</v>
+        <v>261.1</v>
       </c>
       <c r="C104" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D104" t="n">
-        <v>259.9</v>
+        <v>261.1</v>
       </c>
       <c r="E104" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F104" t="n">
-        <v>92.55840000000001</v>
+        <v>1400</v>
       </c>
       <c r="G104" t="n">
-        <v>260.5533333333333</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H104" t="n">
-        <v>261.5250000000001</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4146,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="C105" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D105" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="E105" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F105" t="n">
-        <v>1831.2576</v>
+        <v>278.4561</v>
       </c>
       <c r="G105" t="n">
-        <v>260.58</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H105" t="n">
-        <v>261.4383333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4187,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="C106" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D106" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="E106" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F106" t="n">
-        <v>169.9973</v>
+        <v>387.7353</v>
       </c>
       <c r="G106" t="n">
-        <v>260.6933333333333</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H106" t="n">
-        <v>261.3516666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4228,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="C107" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D107" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="E107" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F107" t="n">
-        <v>3034.8305</v>
+        <v>9829.5921</v>
       </c>
       <c r="G107" t="n">
-        <v>260.72</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H107" t="n">
-        <v>261.265</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4269,1242 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C108" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="D108" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E108" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="F108" t="n">
+        <v>11269.7103</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C109" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>85</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>50</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C111" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D111" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E111" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2347.2929</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D112" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3618.0141</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-78685.82136146791</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>261</v>
+      </c>
+      <c r="C113" t="n">
+        <v>261</v>
+      </c>
+      <c r="D113" t="n">
+        <v>261</v>
+      </c>
+      <c r="E113" t="n">
+        <v>261</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1487.1089</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-77198.71246146791</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4754.1372</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-81952.8496614679</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>261</v>
+      </c>
+      <c r="K114" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1788.0744</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-81952.8496614679</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2499.9256</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-81952.8496614679</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C117" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4562.218</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-86515.0676614679</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>538</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-85977.0676614679</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>127.7035</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-85977.0676614679</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="C120" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>630.2430000000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-86607.3106614679</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="K120" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6401.2707</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-80206.0399614679</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="K121" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>17.7908</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-80206.0399614679</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="K122" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>260</v>
+      </c>
+      <c r="C123" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>260</v>
+      </c>
+      <c r="E123" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4930.164</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-80206.0399614679</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="K123" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>262</v>
+      </c>
+      <c r="C124" t="n">
+        <v>262</v>
+      </c>
+      <c r="D124" t="n">
+        <v>262</v>
+      </c>
+      <c r="E124" t="n">
+        <v>262</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-78206.0399614679</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>262</v>
+      </c>
+      <c r="C125" t="n">
+        <v>262</v>
+      </c>
+      <c r="D125" t="n">
+        <v>262</v>
+      </c>
+      <c r="E125" t="n">
+        <v>262</v>
+      </c>
+      <c r="F125" t="n">
+        <v>55.5097</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-78206.0399614679</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>262</v>
+      </c>
+      <c r="C126" t="n">
+        <v>262</v>
+      </c>
+      <c r="D126" t="n">
+        <v>262</v>
+      </c>
+      <c r="E126" t="n">
+        <v>262</v>
+      </c>
+      <c r="F126" t="n">
+        <v>44.4903</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-78206.0399614679</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>500</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-78706.0399614679</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>741.2</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-78706.0399614679</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>262</v>
+      </c>
+      <c r="C129" t="n">
+        <v>262</v>
+      </c>
+      <c r="D129" t="n">
+        <v>262</v>
+      </c>
+      <c r="E129" t="n">
+        <v>262</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-78704.0399614679</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>262</v>
+      </c>
+      <c r="C130" t="n">
+        <v>262</v>
+      </c>
+      <c r="D130" t="n">
+        <v>262</v>
+      </c>
+      <c r="E130" t="n">
+        <v>262</v>
+      </c>
+      <c r="F130" t="n">
+        <v>387.5633</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-78704.0399614679</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1910.7</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-80614.7399614679</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>92.55840000000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-80614.7399614679</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C133" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F133" t="n">
+        <v>92.55840000000001</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C134" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1831.2576</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C135" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F135" t="n">
+        <v>169.9973</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C136" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3034.8305</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>262</v>
+      </c>
+      <c r="C137" t="n">
+        <v>262</v>
+      </c>
+      <c r="D137" t="n">
+        <v>262</v>
+      </c>
+      <c r="E137" t="n">
+        <v>262</v>
+      </c>
+      <c r="F137" t="n">
         <v>183.3032</v>
       </c>
-      <c r="G108" t="n">
-        <v>260.8866666666666</v>
-      </c>
-      <c r="H108" t="n">
-        <v>261.2133333333334</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="G137" t="n">
+        <v>-80523.9951614679</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="K137" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -944,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -979,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1049,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1119,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2169,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2309,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2344,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2379,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2414,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2554,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2589,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2624,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2729,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2869,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3009,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3044,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3149,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3184,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3219,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3254,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3289,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3359,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3441,6 +3531,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3468,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
@@ -3482,6 +3573,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3523,6 +3615,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3564,6 +3657,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3591,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -3605,6 +3699,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3632,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
@@ -3646,6 +3741,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3673,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>261.5</v>
@@ -3689,6 +3785,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3716,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -3730,6 +3827,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3771,6 +3869,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3812,6 +3911,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3853,6 +3953,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3894,6 +3995,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3935,6 +4037,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3976,6 +4079,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4017,6 +4121,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,6 +4163,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4099,6 +4205,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4140,6 +4247,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4181,6 +4289,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4222,6 +4331,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4263,6 +4373,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4304,6 +4415,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4345,6 +4457,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4386,6 +4499,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4427,6 +4541,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4468,6 +4583,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4509,6 +4625,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4552,6 +4669,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4593,6 +4711,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4634,6 +4753,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4675,6 +4795,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4716,6 +4837,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4757,6 +4879,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4800,6 +4923,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4843,6 +4967,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4886,6 +5011,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4929,6 +5055,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4972,6 +5099,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5013,6 +5141,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5054,6 +5183,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5095,6 +5225,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5136,6 +5267,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5177,6 +5309,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5218,6 +5351,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5259,6 +5393,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5300,6 +5435,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5341,6 +5477,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5382,6 +5519,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5423,6 +5561,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5464,6 +5603,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5507,6 +5647,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>263.5</v>
+        <v>260</v>
       </c>
       <c r="C2" t="n">
-        <v>263.5</v>
+        <v>260</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5</v>
+        <v>260</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5</v>
+        <v>260</v>
       </c>
       <c r="F2" t="n">
-        <v>706.4060721062618</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>-10629.18026042855</v>
+        <v>-14406.63758800417</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>261</v>
+        <v>259.9</v>
       </c>
       <c r="C3" t="n">
-        <v>259.5</v>
+        <v>259.9</v>
       </c>
       <c r="D3" t="n">
-        <v>261</v>
+        <v>259.9</v>
       </c>
       <c r="E3" t="n">
-        <v>259.5</v>
+        <v>259.9</v>
       </c>
       <c r="F3" t="n">
-        <v>8671.3652</v>
+        <v>232.8794</v>
       </c>
       <c r="G3" t="n">
-        <v>-19300.54546042855</v>
+        <v>-14639.51698800417</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>260</v>
+      </c>
+      <c r="K3" t="n">
+        <v>260</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>261</v>
+        <v>259.1</v>
       </c>
       <c r="C4" t="n">
-        <v>261</v>
+        <v>259.1</v>
       </c>
       <c r="D4" t="n">
-        <v>261</v>
+        <v>259.1</v>
       </c>
       <c r="E4" t="n">
-        <v>261</v>
+        <v>259.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1239.8261</v>
+        <v>1073.2489</v>
       </c>
       <c r="G4" t="n">
-        <v>-18060.71936042855</v>
+        <v>-15712.76588800417</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>260</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -549,29 +561,37 @@
         <v>260</v>
       </c>
       <c r="C5" t="n">
+        <v>270</v>
+      </c>
+      <c r="D5" t="n">
+        <v>270</v>
+      </c>
+      <c r="E5" t="n">
+        <v>260</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13872.26934185185</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1840.496546152317</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>259.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>260</v>
-      </c>
-      <c r="E5" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4038.1707</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-22098.89006042855</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>260</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>259.1</v>
+        <v>267.8</v>
       </c>
       <c r="C6" t="n">
-        <v>259.1</v>
+        <v>262.4</v>
       </c>
       <c r="D6" t="n">
-        <v>260.9</v>
+        <v>267.8</v>
       </c>
       <c r="E6" t="n">
-        <v>259.1</v>
+        <v>262.4</v>
       </c>
       <c r="F6" t="n">
-        <v>1411.5954</v>
+        <v>1931.1638</v>
       </c>
       <c r="G6" t="n">
-        <v>-22098.89006042855</v>
+        <v>-3771.660346152317</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>260</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +644,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>259</v>
+        <v>260.5</v>
       </c>
       <c r="C7" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="D7" t="n">
-        <v>259</v>
+        <v>260.5</v>
       </c>
       <c r="E7" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5333</v>
+        <v>2998.4127</v>
       </c>
       <c r="G7" t="n">
-        <v>-22100.42336042855</v>
+        <v>-6770.073046152317</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>260</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C8" t="n">
-        <v>256.7</v>
+        <v>262</v>
       </c>
       <c r="D8" t="n">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E8" t="n">
-        <v>256.7</v>
+        <v>262</v>
       </c>
       <c r="F8" t="n">
-        <v>321.0498</v>
+        <v>276.0706</v>
       </c>
       <c r="G8" t="n">
-        <v>-22421.47316042855</v>
+        <v>-6494.002446152317</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,8 +710,14 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>260</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +728,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>256.8</v>
+        <v>262</v>
       </c>
       <c r="C9" t="n">
-        <v>256.7</v>
+        <v>261</v>
       </c>
       <c r="D9" t="n">
-        <v>256.8</v>
+        <v>262</v>
       </c>
       <c r="E9" t="n">
-        <v>256.7</v>
+        <v>261</v>
       </c>
       <c r="F9" t="n">
-        <v>2090.2814</v>
+        <v>760.9131</v>
       </c>
       <c r="G9" t="n">
-        <v>-22421.47316042855</v>
+        <v>-7254.915546152317</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -714,8 +752,14 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>260</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,22 +770,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="C10" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="D10" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="E10" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>11.1969</v>
       </c>
       <c r="G10" t="n">
-        <v>-17421.47316042855</v>
+        <v>-7254.915546152317</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -750,8 +794,14 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>260</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,22 +812,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="C11" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="D11" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="E11" t="n">
-        <v>256.9</v>
+        <v>261</v>
       </c>
       <c r="F11" t="n">
-        <v>1247.068</v>
+        <v>55.6784</v>
       </c>
       <c r="G11" t="n">
-        <v>-17421.47316042855</v>
+        <v>-7254.915546152317</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -786,8 +836,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>260</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,22 +854,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>256.9</v>
+        <v>262</v>
       </c>
       <c r="C12" t="n">
-        <v>256.9</v>
+        <v>262</v>
       </c>
       <c r="D12" t="n">
-        <v>256.9</v>
+        <v>262</v>
       </c>
       <c r="E12" t="n">
-        <v>256.9</v>
+        <v>262</v>
       </c>
       <c r="F12" t="n">
-        <v>450.6796</v>
+        <v>0.4235</v>
       </c>
       <c r="G12" t="n">
-        <v>-17421.47316042855</v>
+        <v>-7254.492046152317</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -822,8 +878,14 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>260</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,22 +896,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C13" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D13" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E13" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F13" t="n">
-        <v>233.9967</v>
+        <v>5.5335</v>
       </c>
       <c r="G13" t="n">
-        <v>-17187.47646042855</v>
+        <v>-7248.958546152317</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -858,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>260</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +938,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>258.9</v>
+        <v>262</v>
       </c>
       <c r="C14" t="n">
-        <v>258.9</v>
+        <v>262</v>
       </c>
       <c r="D14" t="n">
-        <v>258.9</v>
+        <v>262</v>
       </c>
       <c r="E14" t="n">
-        <v>258.9</v>
+        <v>262</v>
       </c>
       <c r="F14" t="n">
-        <v>1850.986</v>
+        <v>9.576499999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-15336.49046042855</v>
+        <v>-7258.535046152318</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +962,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>260</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,32 +980,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C15" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D15" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E15" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>62.0072</v>
       </c>
       <c r="G15" t="n">
-        <v>-15316.49046042855</v>
+        <v>-7258.535046152318</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>260</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,32 +1022,38 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="C16" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="D16" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="E16" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>429.7769</v>
       </c>
       <c r="G16" t="n">
-        <v>-15316.49046042855</v>
+        <v>-6828.758146152318</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>260</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,32 +1064,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>257.2</v>
+        <v>262.4</v>
       </c>
       <c r="C17" t="n">
-        <v>257.2</v>
+        <v>262.4</v>
       </c>
       <c r="D17" t="n">
-        <v>257.2</v>
+        <v>262.4</v>
       </c>
       <c r="E17" t="n">
-        <v>257.2</v>
+        <v>262.4</v>
       </c>
       <c r="F17" t="n">
-        <v>4.3737</v>
+        <v>1412.1261</v>
       </c>
       <c r="G17" t="n">
-        <v>-15320.86416042855</v>
+        <v>-6828.758146152318</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>260</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="C18" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="D18" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="E18" t="n">
-        <v>259</v>
+        <v>262.4</v>
       </c>
       <c r="F18" t="n">
-        <v>108.4083</v>
+        <v>77.54130000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-15212.45586042855</v>
+        <v>-6828.758146152318</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1130,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>260</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,32 +1148,38 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C19" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D19" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E19" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F19" t="n">
-        <v>2188.068740458015</v>
+        <v>525</v>
       </c>
       <c r="G19" t="n">
-        <v>-13024.38711997054</v>
+        <v>-6303.758146152318</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>260</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1190,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C20" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D20" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E20" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F20" t="n">
-        <v>5849.620859541985</v>
+        <v>167.5826</v>
       </c>
       <c r="G20" t="n">
-        <v>-13024.38711997054</v>
+        <v>-6303.758146152318</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1214,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>260</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1232,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C21" t="n">
-        <v>262</v>
+        <v>263.5</v>
       </c>
       <c r="D21" t="n">
-        <v>262</v>
+        <v>263.5</v>
       </c>
       <c r="E21" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F21" t="n">
-        <v>3040.2836</v>
+        <v>2393.2051</v>
       </c>
       <c r="G21" t="n">
-        <v>-13024.38711997054</v>
+        <v>-3910.553046152318</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>260</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1274,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>262</v>
+        <v>262.4</v>
       </c>
       <c r="C22" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D22" t="n">
-        <v>262</v>
+        <v>262.4</v>
       </c>
       <c r="E22" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0458015267175e-05</v>
+        <v>2039.1096</v>
       </c>
       <c r="G22" t="n">
-        <v>-13024.38711997054</v>
+        <v>-5949.662646152317</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1298,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>260</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1316,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C23" t="n">
-        <v>260</v>
+        <v>265.1</v>
       </c>
       <c r="D23" t="n">
-        <v>260</v>
+        <v>265.1</v>
       </c>
       <c r="E23" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F23" t="n">
-        <v>129.5346</v>
+        <v>2572.865213617503</v>
       </c>
       <c r="G23" t="n">
-        <v>-13153.92171997054</v>
+        <v>-3376.797432534815</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1340,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>260</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1358,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>258</v>
+        <v>262.2</v>
       </c>
       <c r="C24" t="n">
-        <v>258</v>
+        <v>262.1</v>
       </c>
       <c r="D24" t="n">
-        <v>258</v>
+        <v>262.2</v>
       </c>
       <c r="E24" t="n">
-        <v>258</v>
+        <v>262.1</v>
       </c>
       <c r="F24" t="n">
-        <v>108.4083</v>
+        <v>5707</v>
       </c>
       <c r="G24" t="n">
-        <v>-13262.33001997054</v>
+        <v>-9083.797432534815</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1382,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>260</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1400,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>258</v>
+        <v>262.1</v>
       </c>
       <c r="C25" t="n">
-        <v>257</v>
+        <v>262.1</v>
       </c>
       <c r="D25" t="n">
-        <v>258</v>
+        <v>262.1</v>
       </c>
       <c r="E25" t="n">
-        <v>257</v>
+        <v>262.1</v>
       </c>
       <c r="F25" t="n">
-        <v>9396</v>
+        <v>270.1795</v>
       </c>
       <c r="G25" t="n">
-        <v>-22658.33001997054</v>
+        <v>-9083.797432534815</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1424,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>260</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1442,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C26" t="n">
-        <v>259.8</v>
+        <v>261</v>
       </c>
       <c r="D26" t="n">
-        <v>259.8</v>
+        <v>262</v>
       </c>
       <c r="E26" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F26" t="n">
-        <v>3888.389636951501</v>
+        <v>5556.9364</v>
       </c>
       <c r="G26" t="n">
-        <v>-18769.94038301903</v>
+        <v>-14640.73383253481</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>260</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1484,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>259.8</v>
+        <v>261</v>
       </c>
       <c r="C27" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D27" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E27" t="n">
-        <v>259.8</v>
+        <v>261</v>
       </c>
       <c r="F27" t="n">
-        <v>38.46474743311423</v>
+        <v>128.1114</v>
       </c>
       <c r="G27" t="n">
-        <v>-18731.47563558592</v>
+        <v>-14640.73383253481</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1508,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>260</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1526,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>257.5</v>
+        <v>262.1</v>
       </c>
       <c r="C28" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D28" t="n">
-        <v>257.5</v>
+        <v>263</v>
       </c>
       <c r="E28" t="n">
-        <v>257</v>
+        <v>259.9</v>
       </c>
       <c r="F28" t="n">
-        <v>14668.9176</v>
+        <v>3281.8477</v>
       </c>
       <c r="G28" t="n">
-        <v>-33400.39323558592</v>
+        <v>-11358.88613253481</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>260</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1568,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C29" t="n">
-        <v>257</v>
+        <v>263.5</v>
       </c>
       <c r="D29" t="n">
-        <v>257</v>
+        <v>263.5</v>
       </c>
       <c r="E29" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F29" t="n">
-        <v>897.7982</v>
+        <v>26.6499</v>
       </c>
       <c r="G29" t="n">
-        <v>-33400.39323558592</v>
+        <v>-11332.23623253481</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1592,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>260</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1610,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F30" t="n">
-        <v>129.7889</v>
+        <v>3.3501</v>
       </c>
       <c r="G30" t="n">
-        <v>-33270.60433558592</v>
+        <v>-11335.58633253481</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>260</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1652,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>257.2</v>
+        <v>263.5</v>
       </c>
       <c r="C31" t="n">
-        <v>257.1</v>
+        <v>263.5</v>
       </c>
       <c r="D31" t="n">
-        <v>257.2</v>
+        <v>263.5</v>
       </c>
       <c r="E31" t="n">
-        <v>257.1</v>
+        <v>263.5</v>
       </c>
       <c r="F31" t="n">
-        <v>12196.3677</v>
+        <v>706.4060721062618</v>
       </c>
       <c r="G31" t="n">
-        <v>-45466.97203558592</v>
+        <v>-10629.18026042855</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1676,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>260</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1694,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C32" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="D32" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E32" t="n">
-        <v>259</v>
+        <v>259.5</v>
       </c>
       <c r="F32" t="n">
-        <v>129.7889</v>
+        <v>8671.3652</v>
       </c>
       <c r="G32" t="n">
-        <v>-45337.18313558592</v>
+        <v>-19300.54546042855</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>260</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1736,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C33" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D33" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E33" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F33" t="n">
-        <v>2778.1374</v>
+        <v>1239.8261</v>
       </c>
       <c r="G33" t="n">
-        <v>-45337.18313558592</v>
+        <v>-18060.71936042855</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1760,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>260</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1778,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="C34" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="D34" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="E34" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="F34" t="n">
-        <v>1924.572</v>
+        <v>4038.1707</v>
       </c>
       <c r="G34" t="n">
-        <v>-43412.61113558592</v>
+        <v>-22098.89006042855</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1802,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>260</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1820,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="C35" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="D35" t="n">
-        <v>259.5</v>
+        <v>260.9</v>
       </c>
       <c r="E35" t="n">
-        <v>259.5</v>
+        <v>259.1</v>
       </c>
       <c r="F35" t="n">
-        <v>6475.428</v>
+        <v>1411.5954</v>
       </c>
       <c r="G35" t="n">
-        <v>-43412.61113558592</v>
+        <v>-22098.89006042855</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>260</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1862,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="C36" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="D36" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="E36" t="n">
-        <v>259.5</v>
+        <v>259</v>
       </c>
       <c r="F36" t="n">
-        <v>2000</v>
+        <v>1.5333</v>
       </c>
       <c r="G36" t="n">
-        <v>-43412.61113558592</v>
+        <v>-22100.42336042855</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1886,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>260</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1904,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>259.5</v>
+        <v>258</v>
       </c>
       <c r="C37" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="D37" t="n">
-        <v>259.5</v>
+        <v>258</v>
       </c>
       <c r="E37" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="F37" t="n">
-        <v>3080.5686</v>
+        <v>321.0498</v>
       </c>
       <c r="G37" t="n">
-        <v>-43412.61113558592</v>
+        <v>-22421.47316042855</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1928,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>260</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1946,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>259.5</v>
+        <v>256.8</v>
       </c>
       <c r="C38" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="D38" t="n">
-        <v>259.5</v>
+        <v>256.8</v>
       </c>
       <c r="E38" t="n">
-        <v>259.5</v>
+        <v>256.7</v>
       </c>
       <c r="F38" t="n">
-        <v>3666.9426</v>
+        <v>2090.2814</v>
       </c>
       <c r="G38" t="n">
-        <v>-43412.61113558592</v>
+        <v>-22421.47316042855</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1970,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>260</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1988,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="C39" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="D39" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="E39" t="n">
-        <v>259.5</v>
+        <v>256.9</v>
       </c>
       <c r="F39" t="n">
-        <v>1333.4712</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="n">
-        <v>-43412.61113558592</v>
+        <v>-17421.47316042855</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2012,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>260</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2030,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="C40" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="D40" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="E40" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="F40" t="n">
-        <v>59.4506</v>
+        <v>1247.068</v>
       </c>
       <c r="G40" t="n">
-        <v>-43353.16053558593</v>
+        <v>-17421.47316042855</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2054,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>260</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2072,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="C41" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="D41" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="E41" t="n">
-        <v>260</v>
+        <v>256.9</v>
       </c>
       <c r="F41" t="n">
-        <v>333.7693156153846</v>
+        <v>450.6796</v>
       </c>
       <c r="G41" t="n">
-        <v>-43353.16053558593</v>
+        <v>-17421.47316042855</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2096,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>260</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2114,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="C42" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="D42" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="E42" t="n">
-        <v>261.9</v>
+        <v>257</v>
       </c>
       <c r="F42" t="n">
-        <v>1166.7356</v>
+        <v>233.9967</v>
       </c>
       <c r="G42" t="n">
-        <v>-42186.42493558593</v>
+        <v>-17187.47646042855</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2138,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>260</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2156,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="C43" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="D43" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="E43" t="n">
-        <v>262</v>
+        <v>258.9</v>
       </c>
       <c r="F43" t="n">
-        <v>392.8992</v>
+        <v>1850.986</v>
       </c>
       <c r="G43" t="n">
-        <v>-41793.52573558593</v>
+        <v>-15336.49046042855</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2180,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>260</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2198,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C44" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D44" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E44" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F44" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>-41793.52573558593</v>
+        <v>-15316.49046042855</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2222,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>260</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2240,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C45" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D45" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E45" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F45" t="n">
-        <v>1322.9899</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-41793.52573558593</v>
+        <v>-15316.49046042855</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>260</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2282,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="C46" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="D46" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="E46" t="n">
-        <v>262.5</v>
+        <v>257.2</v>
       </c>
       <c r="F46" t="n">
-        <v>5700.0328</v>
+        <v>4.3737</v>
       </c>
       <c r="G46" t="n">
-        <v>-36093.49293558593</v>
+        <v>-15320.86416042855</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>260</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2324,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>262.5</v>
+        <v>259</v>
       </c>
       <c r="C47" t="n">
-        <v>263.5</v>
+        <v>259</v>
       </c>
       <c r="D47" t="n">
-        <v>263.5</v>
+        <v>259</v>
       </c>
       <c r="E47" t="n">
-        <v>262.5</v>
+        <v>259</v>
       </c>
       <c r="F47" t="n">
-        <v>640.3293278937382</v>
+        <v>108.4083</v>
       </c>
       <c r="G47" t="n">
-        <v>-35453.16360769219</v>
+        <v>-15212.45586042855</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2348,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>260</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2366,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>263.7</v>
+        <v>261</v>
       </c>
       <c r="C48" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D48" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E48" t="n">
-        <v>263.7</v>
+        <v>261</v>
       </c>
       <c r="F48" t="n">
-        <v>6856.9994</v>
+        <v>2188.068740458015</v>
       </c>
       <c r="G48" t="n">
-        <v>-28596.16420769219</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2390,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>260</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2408,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="C49" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="D49" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="E49" t="n">
-        <v>266.3</v>
+        <v>262</v>
       </c>
       <c r="F49" t="n">
-        <v>6366.4798</v>
+        <v>5849.620859541985</v>
       </c>
       <c r="G49" t="n">
-        <v>-22229.68440769218</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2432,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>260</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2450,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>266.4</v>
+        <v>262</v>
       </c>
       <c r="C50" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D50" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E50" t="n">
-        <v>266.4</v>
+        <v>262</v>
       </c>
       <c r="F50" t="n">
-        <v>2052.8027</v>
+        <v>3040.2836</v>
       </c>
       <c r="G50" t="n">
-        <v>-20176.88170769218</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2474,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>260</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2492,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>268.5</v>
+        <v>262</v>
       </c>
       <c r="C51" t="n">
-        <v>268.8</v>
+        <v>262</v>
       </c>
       <c r="D51" t="n">
-        <v>268.8</v>
+        <v>262</v>
       </c>
       <c r="E51" t="n">
-        <v>268.5</v>
+        <v>262</v>
       </c>
       <c r="F51" t="n">
-        <v>6361.553</v>
+        <v>4.0458015267175e-05</v>
       </c>
       <c r="G51" t="n">
-        <v>-13815.32870769218</v>
+        <v>-13024.38711997054</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>260</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2534,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C52" t="n">
-        <v>266.3</v>
+        <v>260</v>
       </c>
       <c r="D52" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E52" t="n">
-        <v>266.3</v>
+        <v>260</v>
       </c>
       <c r="F52" t="n">
-        <v>7228.0971</v>
+        <v>129.5346</v>
       </c>
       <c r="G52" t="n">
-        <v>-21043.42580769218</v>
+        <v>-13153.92171997054</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>260</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2576,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C53" t="n">
-        <v>266.3</v>
+        <v>258</v>
       </c>
       <c r="D53" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E53" t="n">
-        <v>266.3</v>
+        <v>258</v>
       </c>
       <c r="F53" t="n">
-        <v>9014.2678</v>
+        <v>108.4083</v>
       </c>
       <c r="G53" t="n">
-        <v>-21043.42580769218</v>
+        <v>-13262.33001997054</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>260</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2618,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="C54" t="n">
-        <v>262.8</v>
+        <v>257</v>
       </c>
       <c r="D54" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="E54" t="n">
-        <v>262.8</v>
+        <v>257</v>
       </c>
       <c r="F54" t="n">
-        <v>1426.3233</v>
+        <v>9396</v>
       </c>
       <c r="G54" t="n">
-        <v>-22469.74910769218</v>
+        <v>-22658.33001997054</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>260</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,32 +2660,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>266.2</v>
+        <v>259</v>
       </c>
       <c r="C55" t="n">
-        <v>266.2</v>
+        <v>259.8</v>
       </c>
       <c r="D55" t="n">
-        <v>266.2</v>
+        <v>259.8</v>
       </c>
       <c r="E55" t="n">
-        <v>266.2</v>
+        <v>259</v>
       </c>
       <c r="F55" t="n">
-        <v>16.8761</v>
+        <v>3888.389636951501</v>
       </c>
       <c r="G55" t="n">
-        <v>-22452.87300769218</v>
+        <v>-18769.94038301903</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>260</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,32 +2702,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>266.2</v>
+        <v>259.8</v>
       </c>
       <c r="C56" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D56" t="n">
-        <v>266.2</v>
+        <v>260</v>
       </c>
       <c r="E56" t="n">
-        <v>266</v>
+        <v>259.8</v>
       </c>
       <c r="F56" t="n">
-        <v>3338.2287</v>
+        <v>38.46474743311423</v>
       </c>
       <c r="G56" t="n">
-        <v>-25791.10170769218</v>
+        <v>-18731.47563558592</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>260</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,32 +2744,38 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>266</v>
+        <v>257.5</v>
       </c>
       <c r="C57" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D57" t="n">
-        <v>266</v>
+        <v>257.5</v>
       </c>
       <c r="E57" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F57" t="n">
-        <v>4.0361</v>
+        <v>14668.9176</v>
       </c>
       <c r="G57" t="n">
-        <v>-25791.10170769218</v>
+        <v>-33400.39323558592</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>260</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,32 +2786,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C58" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D58" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E58" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F58" t="n">
-        <v>2</v>
+        <v>897.7982</v>
       </c>
       <c r="G58" t="n">
-        <v>-25791.10170769218</v>
+        <v>-33400.39323558592</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>260</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2828,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="C59" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="D59" t="n">
-        <v>262.8</v>
+        <v>258</v>
       </c>
       <c r="E59" t="n">
-        <v>262.4</v>
+        <v>258</v>
       </c>
       <c r="F59" t="n">
-        <v>1198.1548</v>
+        <v>129.7889</v>
       </c>
       <c r="G59" t="n">
-        <v>-26989.25650769218</v>
+        <v>-33270.60433558592</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>260</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2870,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>264</v>
+        <v>257.2</v>
       </c>
       <c r="C60" t="n">
-        <v>264</v>
+        <v>257.1</v>
       </c>
       <c r="D60" t="n">
-        <v>264</v>
+        <v>257.2</v>
       </c>
       <c r="E60" t="n">
-        <v>264</v>
+        <v>257.1</v>
       </c>
       <c r="F60" t="n">
-        <v>119.6427</v>
+        <v>12196.3677</v>
       </c>
       <c r="G60" t="n">
-        <v>-26869.61380769218</v>
+        <v>-45466.97203558592</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2894,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>260</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,22 +2912,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C61" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D61" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E61" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F61" t="n">
-        <v>119.6427</v>
+        <v>129.7889</v>
       </c>
       <c r="G61" t="n">
-        <v>-26749.97110769218</v>
+        <v>-45337.18313558592</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2586,8 +2936,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>260</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,32 +2954,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C62" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D62" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E62" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F62" t="n">
-        <v>380.3573</v>
+        <v>2778.1374</v>
       </c>
       <c r="G62" t="n">
-        <v>-26749.97110769218</v>
+        <v>-45337.18313558592</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>260</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,32 +2996,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="C63" t="n">
-        <v>265.7</v>
+        <v>259.5</v>
       </c>
       <c r="D63" t="n">
-        <v>265.7</v>
+        <v>259.5</v>
       </c>
       <c r="E63" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="F63" t="n">
-        <v>20.9958</v>
+        <v>1924.572</v>
       </c>
       <c r="G63" t="n">
-        <v>-26728.97530769218</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>260</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,32 +3038,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>263.1</v>
+        <v>259.5</v>
       </c>
       <c r="C64" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="D64" t="n">
-        <v>263.1</v>
+        <v>259.5</v>
       </c>
       <c r="E64" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="F64" t="n">
-        <v>5384.482</v>
+        <v>6475.428</v>
       </c>
       <c r="G64" t="n">
-        <v>-32113.45730769218</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>260</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +3080,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="C65" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="D65" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="E65" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="F65" t="n">
-        <v>98.5145</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="n">
-        <v>-32113.45730769218</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>260</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +3122,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>262.8</v>
+        <v>259.5</v>
       </c>
       <c r="C66" t="n">
-        <v>262.6</v>
+        <v>259.5</v>
       </c>
       <c r="D66" t="n">
-        <v>262.8</v>
+        <v>259.5</v>
       </c>
       <c r="E66" t="n">
-        <v>262.6</v>
+        <v>259.5</v>
       </c>
       <c r="F66" t="n">
-        <v>9583.248299999999</v>
+        <v>3080.5686</v>
       </c>
       <c r="G66" t="n">
-        <v>-41696.70560769218</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2766,8 +3146,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>260</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2778,32 +3164,38 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="C67" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="D67" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="E67" t="n">
-        <v>260.6</v>
+        <v>259.5</v>
       </c>
       <c r="F67" t="n">
-        <v>5610.0638</v>
+        <v>3666.9426</v>
       </c>
       <c r="G67" t="n">
-        <v>-47306.76940769218</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>260</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2814,22 +3206,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>261</v>
+        <v>259.5</v>
       </c>
       <c r="C68" t="n">
-        <v>261.6</v>
+        <v>259.5</v>
       </c>
       <c r="D68" t="n">
-        <v>261.6</v>
+        <v>259.5</v>
       </c>
       <c r="E68" t="n">
-        <v>261</v>
+        <v>259.5</v>
       </c>
       <c r="F68" t="n">
-        <v>1932.4911</v>
+        <v>1333.4712</v>
       </c>
       <c r="G68" t="n">
-        <v>-45374.27830769218</v>
+        <v>-43412.61113558592</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2838,8 +3230,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>260</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2850,22 +3248,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C69" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D69" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E69" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F69" t="n">
-        <v>76.7927</v>
+        <v>59.4506</v>
       </c>
       <c r="G69" t="n">
-        <v>-45297.48560769218</v>
+        <v>-43353.16053558593</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2874,8 +3272,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>260</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,22 +3290,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="C70" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="D70" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="E70" t="n">
-        <v>262.3</v>
+        <v>260</v>
       </c>
       <c r="F70" t="n">
-        <v>1213.0931</v>
+        <v>333.7693156153846</v>
       </c>
       <c r="G70" t="n">
-        <v>-46510.57870769218</v>
+        <v>-43353.16053558593</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2910,8 +3314,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>260</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2922,32 +3332,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>262.1</v>
+        <v>261.9</v>
       </c>
       <c r="C71" t="n">
-        <v>262</v>
+        <v>261.9</v>
       </c>
       <c r="D71" t="n">
-        <v>262.1</v>
+        <v>261.9</v>
       </c>
       <c r="E71" t="n">
-        <v>262</v>
+        <v>261.9</v>
       </c>
       <c r="F71" t="n">
-        <v>5554.1783</v>
+        <v>1166.7356</v>
       </c>
       <c r="G71" t="n">
-        <v>-52064.75700769218</v>
+        <v>-42186.42493558593</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>260</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2970,10 +3386,10 @@
         <v>262</v>
       </c>
       <c r="F72" t="n">
-        <v>9872.8356</v>
+        <v>392.8992</v>
       </c>
       <c r="G72" t="n">
-        <v>-52064.75700769218</v>
+        <v>-41793.52573558593</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2982,8 +3398,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>260</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2994,22 +3416,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D73" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E73" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F73" t="n">
-        <v>4.0361</v>
+        <v>500</v>
       </c>
       <c r="G73" t="n">
-        <v>-52060.72090769218</v>
+        <v>-41793.52573558593</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3018,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>260</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +3458,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="C74" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="D74" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="E74" t="n">
-        <v>265.1</v>
+        <v>262</v>
       </c>
       <c r="F74" t="n">
-        <v>4.2365</v>
+        <v>1322.9899</v>
       </c>
       <c r="G74" t="n">
-        <v>-52056.48440769218</v>
+        <v>-41793.52573558593</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3054,8 +3482,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>260</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3066,32 +3500,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="C75" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="D75" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="E75" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1147.2916</v>
+        <v>5700.0328</v>
       </c>
       <c r="G75" t="n">
-        <v>-52056.48440769218</v>
+        <v>-36093.49293558593</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>260</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3102,32 +3542,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="C76" t="n">
-        <v>265.1</v>
+        <v>263.5</v>
       </c>
       <c r="D76" t="n">
-        <v>265.1</v>
+        <v>263.5</v>
       </c>
       <c r="E76" t="n">
-        <v>265.1</v>
+        <v>262.5</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>640.3293278937382</v>
       </c>
       <c r="G76" t="n">
-        <v>-52056.48440769218</v>
+        <v>-35453.16360769219</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>260</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3138,22 +3584,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="C77" t="n">
-        <v>265.1</v>
+        <v>265</v>
       </c>
       <c r="D77" t="n">
-        <v>265.1</v>
+        <v>265</v>
       </c>
       <c r="E77" t="n">
-        <v>265.1</v>
+        <v>263.7</v>
       </c>
       <c r="F77" t="n">
-        <v>487.1774</v>
+        <v>6856.9994</v>
       </c>
       <c r="G77" t="n">
-        <v>-52056.48440769218</v>
+        <v>-28596.16420769219</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3162,8 +3608,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>260</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3174,22 +3626,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="C78" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="D78" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="E78" t="n">
-        <v>265.2</v>
+        <v>266.3</v>
       </c>
       <c r="F78" t="n">
-        <v>4.2387</v>
+        <v>6366.4798</v>
       </c>
       <c r="G78" t="n">
-        <v>-52052.24570769218</v>
+        <v>-22229.68440769218</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3198,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>260</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3210,32 +3668,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>265.1</v>
+        <v>266.4</v>
       </c>
       <c r="C79" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="D79" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="E79" t="n">
-        <v>265.1</v>
+        <v>266.4</v>
       </c>
       <c r="F79" t="n">
-        <v>7.647</v>
+        <v>2052.8027</v>
       </c>
       <c r="G79" t="n">
-        <v>-52059.89270769218</v>
+        <v>-20176.88170769218</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>260</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3246,32 +3710,38 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>265.1</v>
+        <v>268.5</v>
       </c>
       <c r="C80" t="n">
-        <v>265.1</v>
+        <v>268.8</v>
       </c>
       <c r="D80" t="n">
-        <v>265.1</v>
+        <v>268.8</v>
       </c>
       <c r="E80" t="n">
-        <v>265.1</v>
+        <v>268.5</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>6361.553</v>
       </c>
       <c r="G80" t="n">
-        <v>-52059.89270769218</v>
+        <v>-13815.32870769218</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>260</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3282,32 +3752,38 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="C81" t="n">
-        <v>265.1</v>
+        <v>266.3</v>
       </c>
       <c r="D81" t="n">
-        <v>265.1</v>
+        <v>268</v>
       </c>
       <c r="E81" t="n">
-        <v>265.1</v>
+        <v>266.3</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1756</v>
+        <v>7228.0971</v>
       </c>
       <c r="G81" t="n">
-        <v>-52059.89270769218</v>
+        <v>-21043.42580769218</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>260</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3318,22 +3794,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C82" t="n">
-        <v>263</v>
+        <v>266.3</v>
       </c>
       <c r="D82" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E82" t="n">
-        <v>263</v>
+        <v>266.3</v>
       </c>
       <c r="F82" t="n">
-        <v>887.7353000000001</v>
+        <v>9014.2678</v>
       </c>
       <c r="G82" t="n">
-        <v>-52947.62800769218</v>
+        <v>-21043.42580769218</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3342,10 +3818,16 @@
         <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>260</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>1.019230769230769</v>
       </c>
       <c r="N82" t="inlineStr"/>
     </row>
@@ -3354,22 +3836,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>260.7</v>
+        <v>262.8</v>
       </c>
       <c r="C83" t="n">
-        <v>260.6</v>
+        <v>262.8</v>
       </c>
       <c r="D83" t="n">
-        <v>260.7</v>
+        <v>262.8</v>
       </c>
       <c r="E83" t="n">
-        <v>260.6</v>
+        <v>262.8</v>
       </c>
       <c r="F83" t="n">
-        <v>4504.1337</v>
+        <v>1426.3233</v>
       </c>
       <c r="G83" t="n">
-        <v>-57451.76170769217</v>
+        <v>-22469.74910769218</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3872,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="C84" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="D84" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="E84" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="F84" t="n">
-        <v>1349.0503</v>
+        <v>16.8761</v>
       </c>
       <c r="G84" t="n">
-        <v>-57451.76170769217</v>
+        <v>-22452.87300769218</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3908,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="C85" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="D85" t="n">
-        <v>260.6</v>
+        <v>266.2</v>
       </c>
       <c r="E85" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="F85" t="n">
-        <v>3207.6931</v>
+        <v>3338.2287</v>
       </c>
       <c r="G85" t="n">
-        <v>-57451.76170769217</v>
+        <v>-25791.10170769218</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,28 +3944,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="C86" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="D86" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="E86" t="n">
-        <v>260.6</v>
+        <v>266</v>
       </c>
       <c r="F86" t="n">
-        <v>1071.5148</v>
+        <v>4.0361</v>
       </c>
       <c r="G86" t="n">
-        <v>-57451.76170769217</v>
+        <v>-25791.10170769218</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3498,35 +3980,31 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="C87" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="D87" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="E87" t="n">
-        <v>262.8</v>
+        <v>266</v>
       </c>
       <c r="F87" t="n">
-        <v>23.4492</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>-57428.31250769217</v>
+        <v>-25791.10170769218</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="K87" t="n">
-        <v>260.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
@@ -3538,22 +4016,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>260</v>
+        <v>262.8</v>
       </c>
       <c r="C88" t="n">
-        <v>260</v>
+        <v>262.8</v>
       </c>
       <c r="D88" t="n">
-        <v>260</v>
+        <v>262.8</v>
       </c>
       <c r="E88" t="n">
-        <v>260</v>
+        <v>262.4</v>
       </c>
       <c r="F88" t="n">
-        <v>23.4492</v>
+        <v>1198.1548</v>
       </c>
       <c r="G88" t="n">
-        <v>-57451.76170769217</v>
+        <v>-26989.25650769218</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3562,14 +4040,8 @@
         <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3580,22 +4052,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C89" t="n">
-        <v>259.5</v>
+        <v>264</v>
       </c>
       <c r="D89" t="n">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E89" t="n">
-        <v>259.5</v>
+        <v>264</v>
       </c>
       <c r="F89" t="n">
-        <v>291.684</v>
+        <v>119.6427</v>
       </c>
       <c r="G89" t="n">
-        <v>-57743.44570769218</v>
+        <v>-26869.61380769218</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3604,14 +4076,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3622,38 +4088,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C90" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D90" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E90" t="n">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F90" t="n">
-        <v>127.3468</v>
+        <v>119.6427</v>
       </c>
       <c r="G90" t="n">
-        <v>-57616.09890769218</v>
+        <v>-26749.97110769218</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3664,22 +4124,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="C91" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="D91" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="E91" t="n">
-        <v>262.6</v>
+        <v>265</v>
       </c>
       <c r="F91" t="n">
-        <v>1772.2325</v>
+        <v>380.3573</v>
       </c>
       <c r="G91" t="n">
-        <v>-55843.86640769218</v>
+        <v>-26749.97110769218</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3688,14 +4148,8 @@
         <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3706,22 +4160,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="C92" t="n">
-        <v>261.5</v>
+        <v>265.7</v>
       </c>
       <c r="D92" t="n">
-        <v>261.5</v>
+        <v>265.7</v>
       </c>
       <c r="E92" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="F92" t="n">
-        <v>4.0361</v>
+        <v>20.9958</v>
       </c>
       <c r="G92" t="n">
-        <v>-55847.90250769218</v>
+        <v>-26728.97530769218</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3730,14 +4184,8 @@
         <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3748,40 +4196,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>262.4</v>
+        <v>263.1</v>
       </c>
       <c r="C93" t="n">
-        <v>262.4</v>
+        <v>263</v>
       </c>
       <c r="D93" t="n">
-        <v>262.4</v>
+        <v>263.1</v>
       </c>
       <c r="E93" t="n">
-        <v>262.4</v>
+        <v>263</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>5384.482</v>
       </c>
       <c r="G93" t="n">
-        <v>-55837.90250769218</v>
+        <v>-32113.45730769218</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="J93" t="n">
-        <v>261.5</v>
-      </c>
-      <c r="K93" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3792,38 +4232,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="C94" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="D94" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="E94" t="n">
-        <v>261.5</v>
+        <v>263</v>
       </c>
       <c r="F94" t="n">
-        <v>3142.5384</v>
+        <v>98.5145</v>
       </c>
       <c r="G94" t="n">
-        <v>-58980.44090769217</v>
+        <v>-32113.45730769218</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3834,22 +4268,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>260.8</v>
+        <v>262.8</v>
       </c>
       <c r="C95" t="n">
-        <v>260.8</v>
+        <v>262.6</v>
       </c>
       <c r="D95" t="n">
-        <v>260.8</v>
+        <v>262.8</v>
       </c>
       <c r="E95" t="n">
-        <v>260.8</v>
+        <v>262.6</v>
       </c>
       <c r="F95" t="n">
-        <v>3000</v>
+        <v>9583.248299999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-61980.44090769217</v>
+        <v>-41696.70560769218</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3858,14 +4292,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3876,22 +4304,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="C96" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="D96" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="E96" t="n">
-        <v>260.8</v>
+        <v>260.6</v>
       </c>
       <c r="F96" t="n">
-        <v>7585</v>
+        <v>5610.0638</v>
       </c>
       <c r="G96" t="n">
-        <v>-61980.44090769217</v>
+        <v>-47306.76940769218</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3900,14 +4328,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3918,22 +4340,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>262.3</v>
+        <v>261</v>
       </c>
       <c r="C97" t="n">
-        <v>262.3</v>
+        <v>261.6</v>
       </c>
       <c r="D97" t="n">
-        <v>262.3</v>
+        <v>261.6</v>
       </c>
       <c r="E97" t="n">
-        <v>262.3</v>
+        <v>261</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>1932.4911</v>
       </c>
       <c r="G97" t="n">
-        <v>-61978.44090769217</v>
+        <v>-45374.27830769218</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3942,14 +4364,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3960,22 +4376,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="C98" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="D98" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="E98" t="n">
-        <v>262.3</v>
+        <v>263</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>76.7927</v>
       </c>
       <c r="G98" t="n">
-        <v>-61978.44090769217</v>
+        <v>-45297.48560769218</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3984,14 +4400,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4002,22 +4412,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>262.1</v>
+        <v>262.3</v>
       </c>
       <c r="C99" t="n">
-        <v>262.2</v>
+        <v>262.3</v>
       </c>
       <c r="D99" t="n">
-        <v>262.2</v>
+        <v>262.3</v>
       </c>
       <c r="E99" t="n">
-        <v>262.1</v>
+        <v>262.3</v>
       </c>
       <c r="F99" t="n">
-        <v>278.4560537757437</v>
+        <v>1213.0931</v>
       </c>
       <c r="G99" t="n">
-        <v>-62256.89696146792</v>
+        <v>-46510.57870769218</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4026,14 +4436,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4044,22 +4448,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>262.2</v>
+        <v>262.1</v>
       </c>
       <c r="C100" t="n">
-        <v>262.2</v>
+        <v>262</v>
       </c>
       <c r="D100" t="n">
-        <v>262.2</v>
+        <v>262.1</v>
       </c>
       <c r="E100" t="n">
-        <v>262.2</v>
+        <v>262</v>
       </c>
       <c r="F100" t="n">
-        <v>39.2999</v>
+        <v>5554.1783</v>
       </c>
       <c r="G100" t="n">
-        <v>-62256.89696146792</v>
+        <v>-52064.75700769218</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4068,14 +4472,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4098,10 +4496,10 @@
         <v>262</v>
       </c>
       <c r="F101" t="n">
-        <v>141.2</v>
+        <v>9872.8356</v>
       </c>
       <c r="G101" t="n">
-        <v>-62398.09696146791</v>
+        <v>-52064.75700769218</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4110,14 +4508,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4128,22 +4520,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C102" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D102" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E102" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F102" t="n">
-        <v>180.5</v>
+        <v>4.0361</v>
       </c>
       <c r="G102" t="n">
-        <v>-62398.09696146791</v>
+        <v>-52060.72090769218</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4152,14 +4544,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4170,22 +4556,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="C103" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="D103" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="E103" t="n">
-        <v>262</v>
+        <v>265.1</v>
       </c>
       <c r="F103" t="n">
-        <v>12</v>
+        <v>4.2365</v>
       </c>
       <c r="G103" t="n">
-        <v>-62398.09696146791</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4194,14 +4580,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4212,22 +4592,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>261.1</v>
+        <v>265.1</v>
       </c>
       <c r="C104" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="D104" t="n">
-        <v>261.1</v>
+        <v>265.1</v>
       </c>
       <c r="E104" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="F104" t="n">
-        <v>1400</v>
+        <v>1147.2916</v>
       </c>
       <c r="G104" t="n">
-        <v>-63798.09696146791</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4236,14 +4616,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4254,22 +4628,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="C105" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="D105" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="E105" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="F105" t="n">
-        <v>278.4561</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-63798.09696146791</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4278,14 +4652,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4296,22 +4664,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="C106" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="D106" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="E106" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="F106" t="n">
-        <v>387.7353</v>
+        <v>487.1774</v>
       </c>
       <c r="G106" t="n">
-        <v>-63798.09696146791</v>
+        <v>-52056.48440769218</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4320,14 +4688,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4700,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="C107" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="D107" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="E107" t="n">
-        <v>261</v>
+        <v>265.2</v>
       </c>
       <c r="F107" t="n">
-        <v>9829.5921</v>
+        <v>4.2387</v>
       </c>
       <c r="G107" t="n">
-        <v>-63798.09696146791</v>
+        <v>-52052.24570769218</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4362,14 +4724,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4380,22 +4736,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="C108" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="D108" t="n">
-        <v>261</v>
+        <v>265.1</v>
       </c>
       <c r="E108" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="F108" t="n">
-        <v>11269.7103</v>
+        <v>7.647</v>
       </c>
       <c r="G108" t="n">
-        <v>-75067.80726146791</v>
+        <v>-52059.89270769218</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4404,14 +4760,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4422,22 +4772,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="C109" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="D109" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="E109" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="F109" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="G109" t="n">
-        <v>-75067.80726146791</v>
+        <v>-52059.89270769218</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4446,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4464,38 +4808,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="C110" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="D110" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="E110" t="n">
-        <v>260.8</v>
+        <v>265.1</v>
       </c>
       <c r="F110" t="n">
-        <v>50</v>
+        <v>0.1756</v>
       </c>
       <c r="G110" t="n">
-        <v>-75067.80726146791</v>
+        <v>-52059.89270769218</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4506,38 +4844,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="C111" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="D111" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="E111" t="n">
-        <v>260.8</v>
+        <v>263</v>
       </c>
       <c r="F111" t="n">
-        <v>2347.2929</v>
+        <v>887.7353000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>-75067.80726146791</v>
+        <v>-52947.62800769218</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4548,38 +4880,32 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>260.8</v>
+        <v>260.7</v>
       </c>
       <c r="C112" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D112" t="n">
         <v>260.7</v>
       </c>
-      <c r="D112" t="n">
-        <v>260.8</v>
-      </c>
       <c r="E112" t="n">
-        <v>260.7</v>
+        <v>260.6</v>
       </c>
       <c r="F112" t="n">
-        <v>3618.0141</v>
+        <v>4504.1337</v>
       </c>
       <c r="G112" t="n">
-        <v>-78685.82136146791</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4590,38 +4916,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="C113" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="D113" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="E113" t="n">
-        <v>261</v>
+        <v>260.6</v>
       </c>
       <c r="F113" t="n">
-        <v>1487.1089</v>
+        <v>1349.0503</v>
       </c>
       <c r="G113" t="n">
-        <v>-77198.71246146791</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4632,40 +4952,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>260.7</v>
+        <v>260.6</v>
       </c>
       <c r="C114" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="D114" t="n">
-        <v>260.7</v>
+        <v>260.6</v>
       </c>
       <c r="E114" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="F114" t="n">
-        <v>4754.1372</v>
+        <v>3207.6931</v>
       </c>
       <c r="G114" t="n">
-        <v>-81952.8496614679</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>261</v>
-      </c>
-      <c r="K114" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4676,38 +4988,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="C115" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="D115" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="E115" t="n">
-        <v>260.5</v>
+        <v>260.6</v>
       </c>
       <c r="F115" t="n">
-        <v>1788.0744</v>
+        <v>1071.5148</v>
       </c>
       <c r="G115" t="n">
-        <v>-81952.8496614679</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4718,38 +5024,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="C116" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="D116" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="E116" t="n">
-        <v>260.5</v>
+        <v>262.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2499.9256</v>
+        <v>23.4492</v>
       </c>
       <c r="G116" t="n">
-        <v>-81952.8496614679</v>
+        <v>-57428.31250769217</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4760,38 +5060,32 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="C117" t="n">
-        <v>258.1</v>
+        <v>260</v>
       </c>
       <c r="D117" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="E117" t="n">
-        <v>258.1</v>
+        <v>260</v>
       </c>
       <c r="F117" t="n">
-        <v>4562.218</v>
+        <v>23.4492</v>
       </c>
       <c r="G117" t="n">
-        <v>-86515.0676614679</v>
+        <v>-57451.76170769217</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4802,22 +5096,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="C118" t="n">
         <v>259.5</v>
       </c>
       <c r="D118" t="n">
-        <v>259.5</v>
+        <v>260</v>
       </c>
       <c r="E118" t="n">
         <v>259.5</v>
       </c>
       <c r="F118" t="n">
-        <v>538</v>
+        <v>291.684</v>
       </c>
       <c r="G118" t="n">
-        <v>-85977.0676614679</v>
+        <v>-57743.44570769218</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4826,14 +5120,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4844,22 +5132,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="C119" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="D119" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="E119" t="n">
-        <v>259.5</v>
+        <v>262</v>
       </c>
       <c r="F119" t="n">
-        <v>127.7035</v>
+        <v>127.3468</v>
       </c>
       <c r="G119" t="n">
-        <v>-85977.0676614679</v>
+        <v>-57616.09890769218</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4868,14 +5156,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4886,40 +5168,32 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>259.2</v>
+        <v>262.6</v>
       </c>
       <c r="C120" t="n">
-        <v>258.2</v>
+        <v>262.6</v>
       </c>
       <c r="D120" t="n">
-        <v>259.2</v>
+        <v>262.6</v>
       </c>
       <c r="E120" t="n">
-        <v>258.2</v>
+        <v>262.6</v>
       </c>
       <c r="F120" t="n">
-        <v>630.2430000000001</v>
+        <v>1772.2325</v>
       </c>
       <c r="G120" t="n">
-        <v>-86607.3106614679</v>
+        <v>-55843.86640769218</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="K120" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4930,40 +5204,32 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="C121" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="D121" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="E121" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="F121" t="n">
-        <v>6401.2707</v>
+        <v>4.0361</v>
       </c>
       <c r="G121" t="n">
-        <v>-80206.0399614679</v>
+        <v>-55847.90250769218</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>258.2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4974,40 +5240,32 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="C122" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="D122" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="E122" t="n">
-        <v>259.5</v>
+        <v>262.4</v>
       </c>
       <c r="F122" t="n">
-        <v>17.7908</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-80206.0399614679</v>
+        <v>-55837.90250769218</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="K122" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5018,40 +5276,32 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="C123" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="D123" t="n">
-        <v>260</v>
+        <v>261.5</v>
       </c>
       <c r="E123" t="n">
-        <v>259.5</v>
+        <v>261.5</v>
       </c>
       <c r="F123" t="n">
-        <v>4930.164</v>
+        <v>3142.5384</v>
       </c>
       <c r="G123" t="n">
-        <v>-80206.0399614679</v>
+        <v>-58980.44090769217</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="K123" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5062,40 +5312,32 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="C124" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="D124" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="E124" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G124" t="n">
-        <v>-78206.0399614679</v>
+        <v>-61980.44090769217</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>259.5</v>
-      </c>
-      <c r="K124" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5106,22 +5348,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="C125" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="D125" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="E125" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="F125" t="n">
-        <v>55.5097</v>
+        <v>7585</v>
       </c>
       <c r="G125" t="n">
-        <v>-78206.0399614679</v>
+        <v>-61980.44090769217</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5130,14 +5372,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5148,22 +5384,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="C126" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="D126" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="E126" t="n">
-        <v>262</v>
+        <v>262.3</v>
       </c>
       <c r="F126" t="n">
-        <v>44.4903</v>
+        <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>-78206.0399614679</v>
+        <v>-61978.44090769217</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5172,14 +5408,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5190,22 +5420,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="C127" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="D127" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="E127" t="n">
-        <v>260.6</v>
+        <v>262.3</v>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>-78706.0399614679</v>
+        <v>-61978.44090769217</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5214,14 +5444,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5232,22 +5456,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>260.6</v>
+        <v>262.1</v>
       </c>
       <c r="C128" t="n">
-        <v>260.6</v>
+        <v>262.2</v>
       </c>
       <c r="D128" t="n">
-        <v>260.6</v>
+        <v>262.2</v>
       </c>
       <c r="E128" t="n">
-        <v>260.6</v>
+        <v>262.1</v>
       </c>
       <c r="F128" t="n">
-        <v>741.2</v>
+        <v>278.4560537757437</v>
       </c>
       <c r="G128" t="n">
-        <v>-78706.0399614679</v>
+        <v>-62256.89696146792</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5256,14 +5480,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5274,22 +5492,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="C129" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="D129" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="E129" t="n">
-        <v>262</v>
+        <v>262.2</v>
       </c>
       <c r="F129" t="n">
-        <v>2</v>
+        <v>39.2999</v>
       </c>
       <c r="G129" t="n">
-        <v>-78704.0399614679</v>
+        <v>-62256.89696146792</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5298,14 +5516,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5328,10 +5540,10 @@
         <v>262</v>
       </c>
       <c r="F130" t="n">
-        <v>387.5633</v>
+        <v>141.2</v>
       </c>
       <c r="G130" t="n">
-        <v>-78704.0399614679</v>
+        <v>-62398.09696146791</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5340,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5358,22 +5564,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="C131" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="D131" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="E131" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="F131" t="n">
-        <v>1910.7</v>
+        <v>180.5</v>
       </c>
       <c r="G131" t="n">
-        <v>-80614.7399614679</v>
+        <v>-62398.09696146791</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5382,14 +5588,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5400,22 +5600,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="C132" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="D132" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="E132" t="n">
-        <v>260.5</v>
+        <v>262</v>
       </c>
       <c r="F132" t="n">
-        <v>92.55840000000001</v>
+        <v>12</v>
       </c>
       <c r="G132" t="n">
-        <v>-80614.7399614679</v>
+        <v>-62398.09696146791</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5424,14 +5624,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5442,22 +5636,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>259.9</v>
+        <v>261.1</v>
       </c>
       <c r="C133" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D133" t="n">
-        <v>259.9</v>
+        <v>261.1</v>
       </c>
       <c r="E133" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F133" t="n">
-        <v>92.55840000000001</v>
+        <v>1400</v>
       </c>
       <c r="G133" t="n">
-        <v>-80707.2983614679</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5466,14 +5660,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5484,22 +5672,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="C134" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D134" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="E134" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F134" t="n">
-        <v>1831.2576</v>
+        <v>278.4561</v>
       </c>
       <c r="G134" t="n">
-        <v>-80707.2983614679</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5508,14 +5696,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5526,22 +5708,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="C135" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D135" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="E135" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F135" t="n">
-        <v>169.9973</v>
+        <v>387.7353</v>
       </c>
       <c r="G135" t="n">
-        <v>-80707.2983614679</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5550,14 +5732,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5568,22 +5744,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="C136" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="D136" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="E136" t="n">
-        <v>259.9</v>
+        <v>261</v>
       </c>
       <c r="F136" t="n">
-        <v>3034.8305</v>
+        <v>9829.5921</v>
       </c>
       <c r="G136" t="n">
-        <v>-80707.2983614679</v>
+        <v>-63798.09696146791</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5592,14 +5768,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5610,44 +5780,1158 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C137" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="D137" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E137" t="n">
-        <v>262</v>
+        <v>260.8</v>
       </c>
       <c r="F137" t="n">
+        <v>11269.7103</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C138" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>85</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>50</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2347.2929</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-75067.80726146791</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3618.0141</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-78685.82136146791</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>261</v>
+      </c>
+      <c r="C142" t="n">
+        <v>261</v>
+      </c>
+      <c r="D142" t="n">
+        <v>261</v>
+      </c>
+      <c r="E142" t="n">
+        <v>261</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1487.1089</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-77198.71246146791</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E143" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4754.1372</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-81952.8496614679</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1788.0744</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-81952.8496614679</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2499.9256</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-81952.8496614679</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C146" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="D146" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E146" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4562.218</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-86515.0676614679</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>538</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-85977.0676614679</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>127.7035</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-85977.0676614679</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>259.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>630.2430000000001</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-86607.3106614679</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6401.2707</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-80206.0399614679</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>17.7908</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-80206.0399614679</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>260</v>
+      </c>
+      <c r="C152" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>260</v>
+      </c>
+      <c r="E152" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4930.164</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-80206.0399614679</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>262</v>
+      </c>
+      <c r="C153" t="n">
+        <v>262</v>
+      </c>
+      <c r="D153" t="n">
+        <v>262</v>
+      </c>
+      <c r="E153" t="n">
+        <v>262</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-78206.0399614679</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>262</v>
+      </c>
+      <c r="C154" t="n">
+        <v>262</v>
+      </c>
+      <c r="D154" t="n">
+        <v>262</v>
+      </c>
+      <c r="E154" t="n">
+        <v>262</v>
+      </c>
+      <c r="F154" t="n">
+        <v>55.5097</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-78206.0399614679</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>262</v>
+      </c>
+      <c r="C155" t="n">
+        <v>262</v>
+      </c>
+      <c r="D155" t="n">
+        <v>262</v>
+      </c>
+      <c r="E155" t="n">
+        <v>262</v>
+      </c>
+      <c r="F155" t="n">
+        <v>44.4903</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-78206.0399614679</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>500</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-78706.0399614679</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>741.2</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-78706.0399614679</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>262</v>
+      </c>
+      <c r="C158" t="n">
+        <v>262</v>
+      </c>
+      <c r="D158" t="n">
+        <v>262</v>
+      </c>
+      <c r="E158" t="n">
+        <v>262</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-78704.0399614679</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>262</v>
+      </c>
+      <c r="C159" t="n">
+        <v>262</v>
+      </c>
+      <c r="D159" t="n">
+        <v>262</v>
+      </c>
+      <c r="E159" t="n">
+        <v>262</v>
+      </c>
+      <c r="F159" t="n">
+        <v>387.5633</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-78704.0399614679</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1910.7</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-80614.7399614679</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>260.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>92.55840000000001</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-80614.7399614679</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F162" t="n">
+        <v>92.55840000000001</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D163" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1831.2576</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>169.9973</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3034.8305</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-80707.2983614679</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>262</v>
+      </c>
+      <c r="C166" t="n">
+        <v>262</v>
+      </c>
+      <c r="D166" t="n">
+        <v>262</v>
+      </c>
+      <c r="E166" t="n">
+        <v>262</v>
+      </c>
+      <c r="F166" t="n">
         <v>183.3032</v>
       </c>
-      <c r="G137" t="n">
+      <c r="G166" t="n">
         <v>-80523.9951614679</v>
       </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
         <v>259.9</v>
       </c>
-      <c r="K137" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N166"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-14406.63758800417</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-14639.51698800417</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="J3" t="n">
         <v>260</v>
       </c>
-      <c r="K3" t="n">
-        <v>260</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>-15712.76588800417</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>259.9</v>
       </c>
       <c r="J4" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K4" t="n">
         <v>260</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>-1840.496546152317</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>259.1</v>
       </c>
       <c r="J5" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="K5" t="n">
         <v>260</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -622,22 +605,19 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>260</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,22 +644,19 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>260</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,22 +683,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>260</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +722,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>260</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +761,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>260</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -830,24 +798,23 @@
         <v>-7254.915546152317</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
+        <v>261</v>
+      </c>
+      <c r="J11" t="n">
         <v>260</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -872,24 +839,23 @@
         <v>-7254.492046152317</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
+        <v>261</v>
+      </c>
+      <c r="J12" t="n">
         <v>260</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,22 +882,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>260</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +921,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>260</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,22 +960,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>260</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +999,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>260</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>260</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1077,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>260</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1116,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>260</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,22 +1155,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>260</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,22 +1194,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>260</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1233,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>260</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1272,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>260</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1376,24 +1309,21 @@
         <v>-9083.797432534815</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>260</v>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1.003076923076923</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1350,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>260</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1460,24 +1381,15 @@
         <v>-14640.73383253481</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>260</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1416,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>260</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1449,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>260</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1482,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>260</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1630,22 +1515,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>260</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,22 +1548,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>260</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1581,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>260</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1614,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>260</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1647,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>260</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1680,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>260</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1713,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>260</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1746,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>260</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1964,24 +1777,21 @@
         <v>-22421.47316042855</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>256.7</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>260</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2006,24 +1816,21 @@
         <v>-17421.47316042855</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>256.7</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>260</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1857,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>260</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1894,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>260</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2132,24 +1929,21 @@
         <v>-17187.47646042855</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>256.9</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>260</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2174,24 +1968,21 @@
         <v>-15336.49046042855</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>260</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +2009,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>260</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +2046,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>260</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +2083,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>260</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +2120,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>260</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2386,22 +2157,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>260</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2426,24 +2192,21 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>260</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2468,24 +2231,21 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>260</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2272,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>260</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2554,22 +2309,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>260</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2596,22 +2346,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>260</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2383,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>260</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2420,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>260</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2722,22 +2457,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>260</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2494,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>260</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,22 +2531,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>260</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,22 +2568,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>260</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,22 +2605,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>260</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2932,22 +2642,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>260</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,22 +2679,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>260</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3016,22 +2716,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>260</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3058,22 +2753,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>260</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3100,22 +2790,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>260</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3142,22 +2827,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>260</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3184,22 +2864,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>260</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3226,22 +2901,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>260</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3268,22 +2938,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>260</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3310,22 +2975,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>260</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3352,22 +3012,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>260</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3394,22 +3049,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>260</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3436,22 +3086,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>260</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3478,22 +3123,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>260</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3520,22 +3160,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>260</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3562,22 +3197,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>260</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3604,22 +3234,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>260</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3646,22 +3271,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>260</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3688,22 +3308,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>260</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3728,24 +3343,17 @@
         <v>-13815.32870769218</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>260</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3770,24 +3378,15 @@
         <v>-21043.42580769218</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>260</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3814,22 +3413,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>260</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1.019230769230769</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3856,16 +3446,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3892,16 +3479,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3928,16 +3512,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3964,16 +3545,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4000,16 +3578,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4036,16 +3611,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4072,16 +3644,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4108,16 +3677,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4142,18 +3708,15 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4178,18 +3741,15 @@
         <v>-26728.97530769218</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4216,16 +3776,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4252,16 +3809,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4286,18 +3840,15 @@
         <v>-41696.70560769218</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4324,16 +3875,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4358,18 +3906,15 @@
         <v>-45374.27830769218</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4394,18 +3939,15 @@
         <v>-45297.48560769218</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4432,16 +3974,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4468,16 +4007,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4504,16 +4040,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4538,18 +4071,15 @@
         <v>-52060.72090769218</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4576,16 +4106,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4612,16 +4139,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4648,16 +4172,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4684,16 +4205,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4720,16 +4238,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4756,16 +4271,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4792,16 +4304,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4828,16 +4337,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4864,16 +4370,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4900,16 +4403,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4936,16 +4436,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4972,16 +4469,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5006,18 +4500,15 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5042,18 +4533,15 @@
         <v>-57428.31250769217</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5078,18 +4566,15 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5116,16 +4601,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5150,18 +4632,15 @@
         <v>-57616.09890769218</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5188,16 +4667,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5224,16 +4700,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5260,16 +4733,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5296,16 +4766,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5332,16 +4799,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5368,16 +4832,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5404,16 +4865,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5440,16 +4898,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5476,16 +4931,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5512,16 +4964,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5548,16 +4997,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5584,16 +5030,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5620,16 +5063,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5656,16 +5096,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5692,16 +5129,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5728,16 +5162,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5764,16 +5195,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5800,16 +5228,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5836,16 +5261,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5872,16 +5294,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5908,16 +5327,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5944,16 +5360,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5980,16 +5393,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6016,16 +5426,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6052,16 +5459,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6088,16 +5492,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6124,16 +5525,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6160,16 +5558,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6196,16 +5591,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6230,24 +5622,15 @@
         <v>-86607.3106614679</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6272,24 +5655,15 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>258.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6316,20 +5690,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6354,22 +5721,21 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>259.5</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6396,20 +5762,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6436,20 +5799,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6476,20 +5836,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6516,20 +5873,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6556,20 +5910,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6596,20 +5947,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6636,20 +5984,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6676,20 +6021,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6716,20 +6058,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6754,22 +6093,21 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>260.5</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6794,22 +6132,21 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>259.9</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6836,20 +6173,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6876,20 +6210,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6914,26 +6245,23 @@
         <v>-80523.9951614679</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
         <v>259.9</v>
       </c>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-14406.63758800417</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-14639.51698800417</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>260</v>
-      </c>
-      <c r="J3" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-15712.76588800417</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>260</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-1840.496546152317</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>259.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>260</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,17 +583,11 @@
         <v>-3771.660346152317</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>260</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -645,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>260</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>260</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>260</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -759,17 +715,11 @@
         <v>-7254.915546152317</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>260</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -798,19 +748,11 @@
         <v>-7254.915546152317</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>261</v>
-      </c>
-      <c r="J11" t="n">
-        <v>260</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -841,17 +783,9 @@
       <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="I12" t="n">
-        <v>261</v>
-      </c>
-      <c r="J12" t="n">
-        <v>260</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -880,17 +814,11 @@
         <v>-7248.958546152317</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>260</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -919,17 +847,11 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>260</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -958,17 +880,11 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>260</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -997,17 +913,11 @@
         <v>-6828.758146152318</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>260</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1036,17 +946,11 @@
         <v>-6828.758146152318</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>260</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1075,17 +979,11 @@
         <v>-6828.758146152318</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>260</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1114,17 +1012,11 @@
         <v>-6303.758146152318</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>260</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>260</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1195,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>260</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>260</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1273,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>260</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1309,19 +1177,13 @@
         <v>-9083.797432534815</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>260</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
-        <v>1.003076923076923</v>
+        <v>1</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1348,7 +1210,7 @@
         <v>-9083.797432534815</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1381,7 +1243,7 @@
         <v>-14640.73383253481</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1414,7 +1276,7 @@
         <v>-14640.73383253481</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1447,7 +1309,7 @@
         <v>-11358.88613253481</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1480,7 +1342,7 @@
         <v>-11332.23623253481</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1513,7 +1375,7 @@
         <v>-11335.58633253481</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1546,7 +1408,7 @@
         <v>-10629.18026042855</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1579,7 +1441,7 @@
         <v>-19300.54546042855</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1612,7 +1474,7 @@
         <v>-18060.71936042855</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1645,7 +1507,7 @@
         <v>-22098.89006042855</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1777,17 +1639,11 @@
         <v>-22421.47316042855</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>256.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1816,17 +1672,11 @@
         <v>-17421.47316042855</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>256.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1892,15 +1738,11 @@
         <v>-17421.47316042855</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1931,15 +1773,9 @@
       <c r="H42" t="n">
         <v>2</v>
       </c>
-      <c r="I42" t="n">
-        <v>256.9</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,15 +1806,9 @@
       <c r="H43" t="n">
         <v>2</v>
       </c>
-      <c r="I43" t="n">
-        <v>257</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,15 +1837,11 @@
         <v>-15316.49046042855</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,15 +1870,11 @@
         <v>-15316.49046042855</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,15 +1903,11 @@
         <v>-15320.86416042855</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,15 +1936,11 @@
         <v>-15212.45586042855</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,15 +1969,11 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2194,15 +2004,9 @@
       <c r="H49" t="n">
         <v>2</v>
       </c>
-      <c r="I49" t="n">
-        <v>262</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2233,15 +2037,9 @@
       <c r="H50" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="n">
-        <v>262</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2270,15 +2068,11 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,15 +2101,11 @@
         <v>-13153.92171997054</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2344,15 +2134,11 @@
         <v>-13262.33001997054</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,15 +2167,11 @@
         <v>-22658.33001997054</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2418,15 +2200,11 @@
         <v>-18769.94038301903</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2459,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2533,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2570,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2644,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2681,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2718,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2792,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2829,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2866,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2940,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3014,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3051,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3088,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3162,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3199,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3273,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3310,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3343,16 +3025,14 @@
         <v>-13815.32870769218</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3378,7 +3058,7 @@
         <v>-21043.42580769218</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3708,7 +3388,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3741,7 +3421,7 @@
         <v>-26728.97530769218</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3807,7 +3487,7 @@
         <v>-32113.45730769218</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3840,7 +3520,7 @@
         <v>-41696.70560769218</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3873,7 +3553,7 @@
         <v>-47306.76940769218</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3906,7 +3586,7 @@
         <v>-45374.27830769218</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3939,7 +3619,7 @@
         <v>-45297.48560769218</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3972,7 +3652,7 @@
         <v>-46510.57870769218</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4071,7 +3751,7 @@
         <v>-52060.72090769218</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4500,7 +4180,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4533,7 +4213,7 @@
         <v>-57428.31250769217</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4566,7 +4246,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4632,7 +4312,7 @@
         <v>-57616.09890769218</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -5721,17 +5401,11 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6093,17 +5731,11 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>260.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6132,17 +5764,11 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>259.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6175,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6208,15 +5830,15 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="J165" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6245,15 +5867,17 @@
         <v>-80523.9951614679</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>259.9</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>259.9</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -6262,6 +5886,6 @@
       <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-3771.660346152317</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-7254.915546152317</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-7254.492046152317</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-6828.758146152318</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-6828.758146152318</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-6828.758146152318</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-6303.758146152318</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-9083.797432534815</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-14640.73383253481</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-14640.73383253481</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-11358.88613253481</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-19300.54546042855</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-22098.89006042855</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-22098.89006042855</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-17421.47316042855</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-17187.47646042855</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-15336.49046042855</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-15316.49046042855</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-15316.49046042855</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-15320.86416042855</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-15212.45586042855</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-13024.38711997054</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-13153.92171997054</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-13262.33001997054</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-22658.33001997054</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-18769.94038301903</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-22469.74910769218</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-22452.87300769218</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-26728.97530769218</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-32113.45730769218</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-32113.45730769218</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-41696.70560769218</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-47306.76940769218</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-45374.27830769218</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-46510.57870769218</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-52056.48440769218</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -5401,11 +5401,17 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>259.5</v>
+      </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +5440,17 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>259.5</v>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5467,11 +5479,17 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>262</v>
+      </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5500,11 +5518,17 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>262</v>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5561,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5598,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5635,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5636,7 +5672,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5669,7 +5709,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5702,7 +5746,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5735,7 +5783,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5768,7 +5820,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5801,7 +5857,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5835,10 +5895,12 @@
       <c r="I165" t="n">
         <v>259.9</v>
       </c>
-      <c r="J165" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5872,12 +5934,10 @@
       <c r="I166" t="n">
         <v>259.9</v>
       </c>
-      <c r="J166" t="n">
-        <v>259.9</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L166" t="n">
@@ -5886,6 +5946,6 @@
       <c r="M166" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -814,7 +814,7 @@
         <v>-7248.958546152317</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-7258.535046152318</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-11332.23623253481</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-11335.58633253481</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-10629.18026042855</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-18060.71936042855</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-22098.89006042855</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-21043.42580769218</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-22469.74910769218</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-22452.87300769218</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-25791.10170769218</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-26749.97110769218</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-26728.97530769218</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-32113.45730769218</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-52056.48440769218</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-52052.24570769218</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-52059.89270769218</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-52947.62800769218</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-57451.76170769217</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -5401,17 +5401,11 @@
         <v>-80206.0399614679</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5440,17 +5434,11 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>259.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5479,17 +5467,11 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5518,17 +5500,11 @@
         <v>-78206.0399614679</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>262</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5631,15 +5599,15 @@
         <v>-78704.0399614679</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="J158" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5668,13 +5636,17 @@
         <v>-78704.0399614679</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>262</v>
+      </c>
+      <c r="J159" t="n">
+        <v>260.6</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5708,10 +5680,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>260.6</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5746,11 +5720,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5753,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5786,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5853,15 +5815,15 @@
         <v>-80707.2983614679</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="J164" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5895,10 +5857,12 @@
       <c r="I165" t="n">
         <v>259.9</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>259.9</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5934,10 +5898,12 @@
       <c r="I166" t="n">
         <v>259.9</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>259.9</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L166" t="n">

--- a/BackTest/2020-01-22 BackTest VALOR.xlsx
+++ b/BackTest/2020-01-22 BackTest VALOR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:L166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>-14406.63758800417</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>232.8794</v>
       </c>
       <c r="G3" t="n">
-        <v>-14639.51698800417</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1073.2489</v>
       </c>
       <c r="G4" t="n">
-        <v>-15712.76588800417</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>13872.26934185185</v>
       </c>
       <c r="G5" t="n">
-        <v>-1840.496546152317</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1931.1638</v>
       </c>
       <c r="G6" t="n">
-        <v>-3771.660346152317</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2998.4127</v>
       </c>
       <c r="G7" t="n">
-        <v>-6770.073046152317</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>276.0706</v>
       </c>
       <c r="G8" t="n">
-        <v>-6494.002446152317</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>760.9131</v>
       </c>
       <c r="G9" t="n">
-        <v>-7254.915546152317</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>11.1969</v>
       </c>
       <c r="G10" t="n">
-        <v>-7254.915546152317</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>55.6784</v>
       </c>
       <c r="G11" t="n">
-        <v>-7254.915546152317</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>0.4235</v>
       </c>
       <c r="G12" t="n">
-        <v>-7254.492046152317</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5.5335</v>
       </c>
       <c r="G13" t="n">
-        <v>-7248.958546152317</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>9.576499999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-7258.535046152318</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>62.0072</v>
       </c>
       <c r="G15" t="n">
-        <v>-7258.535046152318</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>429.7769</v>
       </c>
       <c r="G16" t="n">
-        <v>-6828.758146152318</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1412.1261</v>
       </c>
       <c r="G17" t="n">
-        <v>-6828.758146152318</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>77.54130000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-6828.758146152318</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>525</v>
       </c>
       <c r="G19" t="n">
-        <v>-6303.758146152318</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>167.5826</v>
       </c>
       <c r="G20" t="n">
-        <v>-6303.758146152318</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2393.2051</v>
       </c>
       <c r="G21" t="n">
-        <v>-3910.553046152318</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>2039.1096</v>
       </c>
       <c r="G22" t="n">
-        <v>-5949.662646152317</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2572.865213617503</v>
       </c>
       <c r="G23" t="n">
-        <v>-3376.797432534815</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>5707</v>
       </c>
       <c r="G24" t="n">
-        <v>-9083.797432534815</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>270.1795</v>
       </c>
       <c r="G25" t="n">
-        <v>-9083.797432534815</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>5556.9364</v>
       </c>
       <c r="G26" t="n">
-        <v>-14640.73383253481</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>128.1114</v>
       </c>
       <c r="G27" t="n">
-        <v>-14640.73383253481</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3281.8477</v>
       </c>
       <c r="G28" t="n">
-        <v>-11358.88613253481</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>26.6499</v>
       </c>
       <c r="G29" t="n">
-        <v>-11332.23623253481</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3.3501</v>
       </c>
       <c r="G30" t="n">
-        <v>-11335.58633253481</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>706.4060721062618</v>
       </c>
       <c r="G31" t="n">
-        <v>-10629.18026042855</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>8671.3652</v>
       </c>
       <c r="G32" t="n">
-        <v>-19300.54546042855</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1239.8261</v>
       </c>
       <c r="G33" t="n">
-        <v>-18060.71936042855</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>4038.1707</v>
       </c>
       <c r="G34" t="n">
-        <v>-22098.89006042855</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1411.5954</v>
       </c>
       <c r="G35" t="n">
-        <v>-22098.89006042855</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1.5333</v>
       </c>
       <c r="G36" t="n">
-        <v>-22100.42336042855</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>321.0498</v>
       </c>
       <c r="G37" t="n">
-        <v>-22421.47316042855</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2090.2814</v>
       </c>
       <c r="G38" t="n">
-        <v>-22421.47316042855</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>5000</v>
       </c>
       <c r="G39" t="n">
-        <v>-17421.47316042855</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>1247.068</v>
       </c>
       <c r="G40" t="n">
-        <v>-17421.47316042855</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>450.6796</v>
       </c>
       <c r="G41" t="n">
-        <v>-17421.47316042855</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>233.9967</v>
       </c>
       <c r="G42" t="n">
-        <v>-17187.47646042855</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,19 @@
         <v>1850.986</v>
       </c>
       <c r="G43" t="n">
-        <v>-15336.49046042855</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="I43" t="n">
+        <v>257</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1707,21 @@
         <v>20</v>
       </c>
       <c r="G44" t="n">
-        <v>-15316.49046042855</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>257</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1743,21 @@
         <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>-15316.49046042855</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>257</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1779,15 @@
         <v>4.3737</v>
       </c>
       <c r="G46" t="n">
-        <v>-15320.86416042855</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1809,19 @@
         <v>108.4083</v>
       </c>
       <c r="G47" t="n">
-        <v>-15212.45586042855</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>257.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>257.2</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1843,23 @@
         <v>2188.068740458015</v>
       </c>
       <c r="G48" t="n">
-        <v>-13024.38711997054</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="I48" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1881,21 @@
         <v>5849.620859541985</v>
       </c>
       <c r="G49" t="n">
-        <v>-13024.38711997054</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1917,15 @@
         <v>3040.2836</v>
       </c>
       <c r="G50" t="n">
-        <v>-13024.38711997054</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1947,15 @@
         <v>4.0458015267175e-05</v>
       </c>
       <c r="G51" t="n">
-        <v>-13024.38711997054</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1977,15 @@
         <v>129.5346</v>
       </c>
       <c r="G52" t="n">
-        <v>-13153.92171997054</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2007,15 @@
         <v>108.4083</v>
       </c>
       <c r="G53" t="n">
-        <v>-13262.33001997054</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2037,15 @@
         <v>9396</v>
       </c>
       <c r="G54" t="n">
-        <v>-22658.33001997054</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2067,15 @@
         <v>3888.389636951501</v>
       </c>
       <c r="G55" t="n">
-        <v>-18769.94038301903</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2097,15 @@
         <v>38.46474743311423</v>
       </c>
       <c r="G56" t="n">
-        <v>-18731.47563558592</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2127,15 @@
         <v>14668.9176</v>
       </c>
       <c r="G57" t="n">
-        <v>-33400.39323558592</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2157,15 @@
         <v>897.7982</v>
       </c>
       <c r="G58" t="n">
-        <v>-33400.39323558592</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2187,15 @@
         <v>129.7889</v>
       </c>
       <c r="G59" t="n">
-        <v>-33270.60433558592</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2217,15 @@
         <v>12196.3677</v>
       </c>
       <c r="G60" t="n">
-        <v>-45466.97203558592</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2247,19 @@
         <v>129.7889</v>
       </c>
       <c r="G61" t="n">
-        <v>-45337.18313558592</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>257.1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>257.1</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2281,23 @@
         <v>2778.1374</v>
       </c>
       <c r="G62" t="n">
-        <v>-45337.18313558592</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="I62" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2319,23 @@
         <v>1924.572</v>
       </c>
       <c r="G63" t="n">
-        <v>-43412.61113558592</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="I63" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2357,15 @@
         <v>6475.428</v>
       </c>
       <c r="G64" t="n">
-        <v>-43412.61113558592</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2387,19 @@
         <v>2000</v>
       </c>
       <c r="G65" t="n">
-        <v>-43412.61113558592</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>259.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>259.5</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2421,23 @@
         <v>3080.5686</v>
       </c>
       <c r="G66" t="n">
-        <v>-43412.61113558592</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>259.5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2459,23 @@
         <v>3666.9426</v>
       </c>
       <c r="G67" t="n">
-        <v>-43412.61113558592</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>259.5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2497,19 @@
         <v>1333.4712</v>
       </c>
       <c r="G68" t="n">
-        <v>-43412.61113558592</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>259.5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>259.5</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2531,23 @@
         <v>59.4506</v>
       </c>
       <c r="G69" t="n">
-        <v>-43353.16053558593</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>259.5</v>
+      </c>
+      <c r="I69" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2569,21 @@
         <v>333.7693156153846</v>
       </c>
       <c r="G70" t="n">
-        <v>-43353.16053558593</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2605,15 @@
         <v>1166.7356</v>
       </c>
       <c r="G71" t="n">
-        <v>-42186.42493558593</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2635,15 @@
         <v>392.8992</v>
       </c>
       <c r="G72" t="n">
-        <v>-41793.52573558593</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2665,15 @@
         <v>500</v>
       </c>
       <c r="G73" t="n">
-        <v>-41793.52573558593</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2695,15 @@
         <v>1322.9899</v>
       </c>
       <c r="G74" t="n">
-        <v>-41793.52573558593</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2725,15 @@
         <v>5700.0328</v>
       </c>
       <c r="G75" t="n">
-        <v>-36093.49293558593</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2755,15 @@
         <v>640.3293278937382</v>
       </c>
       <c r="G76" t="n">
-        <v>-35453.16360769219</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2785,15 @@
         <v>6856.9994</v>
       </c>
       <c r="G77" t="n">
-        <v>-28596.16420769219</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2815,15 @@
         <v>6366.4798</v>
       </c>
       <c r="G78" t="n">
-        <v>-22229.68440769218</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2845,15 @@
         <v>2052.8027</v>
       </c>
       <c r="G79" t="n">
-        <v>-20176.88170769218</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2875,15 @@
         <v>6361.553</v>
       </c>
       <c r="G80" t="n">
-        <v>-13815.32870769218</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2905,15 @@
         <v>7228.0971</v>
       </c>
       <c r="G81" t="n">
-        <v>-21043.42580769218</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2935,15 @@
         <v>9014.2678</v>
       </c>
       <c r="G82" t="n">
-        <v>-21043.42580769218</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2965,15 @@
         <v>1426.3233</v>
       </c>
       <c r="G83" t="n">
-        <v>-22469.74910769218</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2995,15 @@
         <v>16.8761</v>
       </c>
       <c r="G84" t="n">
-        <v>-22452.87300769218</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3025,15 @@
         <v>3338.2287</v>
       </c>
       <c r="G85" t="n">
-        <v>-25791.10170769218</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3055,15 @@
         <v>4.0361</v>
       </c>
       <c r="G86" t="n">
-        <v>-25791.10170769218</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3085,15 @@
         <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>-25791.10170769218</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3115,15 @@
         <v>1198.1548</v>
       </c>
       <c r="G88" t="n">
-        <v>-26989.25650769218</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3145,15 @@
         <v>119.6427</v>
       </c>
       <c r="G89" t="n">
-        <v>-26869.61380769218</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3175,15 @@
         <v>119.6427</v>
       </c>
       <c r="G90" t="n">
-        <v>-26749.97110769218</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3205,15 @@
         <v>380.3573</v>
       </c>
       <c r="G91" t="n">
-        <v>-26749.97110769218</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3235,15 @@
         <v>20.9958</v>
       </c>
       <c r="G92" t="n">
-        <v>-26728.97530769218</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3265,15 @@
         <v>5384.482</v>
       </c>
       <c r="G93" t="n">
-        <v>-32113.45730769218</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3295,15 @@
         <v>98.5145</v>
       </c>
       <c r="G94" t="n">
-        <v>-32113.45730769218</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3325,15 @@
         <v>9583.248299999999</v>
       </c>
       <c r="G95" t="n">
-        <v>-41696.70560769218</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3355,15 @@
         <v>5610.0638</v>
       </c>
       <c r="G96" t="n">
-        <v>-47306.76940769218</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3385,15 @@
         <v>1932.4911</v>
       </c>
       <c r="G97" t="n">
-        <v>-45374.27830769218</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3415,15 @@
         <v>76.7927</v>
       </c>
       <c r="G98" t="n">
-        <v>-45297.48560769218</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3445,15 @@
         <v>1213.0931</v>
       </c>
       <c r="G99" t="n">
-        <v>-46510.57870769218</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3475,15 @@
         <v>5554.1783</v>
       </c>
       <c r="G100" t="n">
-        <v>-52064.75700769218</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3505,15 @@
         <v>9872.8356</v>
       </c>
       <c r="G101" t="n">
-        <v>-52064.75700769218</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3535,15 @@
         <v>4.0361</v>
       </c>
       <c r="G102" t="n">
-        <v>-52060.72090769218</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3565,15 @@
         <v>4.2365</v>
       </c>
       <c r="G103" t="n">
-        <v>-52056.48440769218</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3595,15 @@
         <v>1147.2916</v>
       </c>
       <c r="G104" t="n">
-        <v>-52056.48440769218</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3625,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-52056.48440769218</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3655,15 @@
         <v>487.1774</v>
       </c>
       <c r="G106" t="n">
-        <v>-52056.48440769218</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3685,15 @@
         <v>4.2387</v>
       </c>
       <c r="G107" t="n">
-        <v>-52052.24570769218</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3715,15 @@
         <v>7.647</v>
       </c>
       <c r="G108" t="n">
-        <v>-52059.89270769218</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3745,15 @@
         <v>5</v>
       </c>
       <c r="G109" t="n">
-        <v>-52059.89270769218</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3775,15 @@
         <v>0.1756</v>
       </c>
       <c r="G110" t="n">
-        <v>-52059.89270769218</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3805,15 @@
         <v>887.7353000000001</v>
       </c>
       <c r="G111" t="n">
-        <v>-52947.62800769218</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3835,15 @@
         <v>4504.1337</v>
       </c>
       <c r="G112" t="n">
-        <v>-57451.76170769217</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3865,15 @@
         <v>1349.0503</v>
       </c>
       <c r="G113" t="n">
-        <v>-57451.76170769217</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3895,15 @@
         <v>3207.6931</v>
       </c>
       <c r="G114" t="n">
-        <v>-57451.76170769217</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3925,15 @@
         <v>1071.5148</v>
       </c>
       <c r="G115" t="n">
-        <v>-57451.76170769217</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3955,15 @@
         <v>23.4492</v>
       </c>
       <c r="G116" t="n">
-        <v>-57428.31250769217</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3985,15 @@
         <v>23.4492</v>
       </c>
       <c r="G117" t="n">
-        <v>-57451.76170769217</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4015,15 @@
         <v>291.684</v>
       </c>
       <c r="G118" t="n">
-        <v>-57743.44570769218</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4045,15 @@
         <v>127.3468</v>
       </c>
       <c r="G119" t="n">
-        <v>-57616.09890769218</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4075,15 @@
         <v>1772.2325</v>
       </c>
       <c r="G120" t="n">
-        <v>-55843.86640769218</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4105,15 @@
         <v>4.0361</v>
       </c>
       <c r="G121" t="n">
-        <v>-55847.90250769218</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4135,15 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-55837.90250769218</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4165,15 @@
         <v>3142.5384</v>
       </c>
       <c r="G123" t="n">
-        <v>-58980.44090769217</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4195,15 @@
         <v>3000</v>
       </c>
       <c r="G124" t="n">
-        <v>-61980.44090769217</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4225,15 @@
         <v>7585</v>
       </c>
       <c r="G125" t="n">
-        <v>-61980.44090769217</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4255,15 @@
         <v>2</v>
       </c>
       <c r="G126" t="n">
-        <v>-61978.44090769217</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4285,15 @@
         <v>2</v>
       </c>
       <c r="G127" t="n">
-        <v>-61978.44090769217</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4315,15 @@
         <v>278.4560537757437</v>
       </c>
       <c r="G128" t="n">
-        <v>-62256.89696146792</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4345,15 @@
         <v>39.2999</v>
       </c>
       <c r="G129" t="n">
-        <v>-62256.89696146792</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4375,15 @@
         <v>141.2</v>
       </c>
       <c r="G130" t="n">
-        <v>-62398.09696146791</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4405,15 @@
         <v>180.5</v>
       </c>
       <c r="G131" t="n">
-        <v>-62398.09696146791</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4435,15 @@
         <v>12</v>
       </c>
       <c r="G132" t="n">
-        <v>-62398.09696146791</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4465,15 @@
         <v>1400</v>
       </c>
       <c r="G133" t="n">
-        <v>-63798.09696146791</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4495,15 @@
         <v>278.4561</v>
       </c>
       <c r="G134" t="n">
-        <v>-63798.09696146791</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4525,15 @@
         <v>387.7353</v>
       </c>
       <c r="G135" t="n">
-        <v>-63798.09696146791</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4555,15 @@
         <v>9829.5921</v>
       </c>
       <c r="G136" t="n">
-        <v>-63798.09696146791</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4585,15 @@
         <v>11269.7103</v>
       </c>
       <c r="G137" t="n">
-        <v>-75067.80726146791</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4615,15 @@
         <v>85</v>
       </c>
       <c r="G138" t="n">
-        <v>-75067.80726146791</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4645,15 @@
         <v>50</v>
       </c>
       <c r="G139" t="n">
-        <v>-75067.80726146791</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4675,15 @@
         <v>2347.2929</v>
       </c>
       <c r="G140" t="n">
-        <v>-75067.80726146791</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4705,15 @@
         <v>3618.0141</v>
       </c>
       <c r="G141" t="n">
-        <v>-78685.82136146791</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4735,15 @@
         <v>1487.1089</v>
       </c>
       <c r="G142" t="n">
-        <v>-77198.71246146791</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4765,15 @@
         <v>4754.1372</v>
       </c>
       <c r="G143" t="n">
-        <v>-81952.8496614679</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4795,15 @@
         <v>1788.0744</v>
       </c>
       <c r="G144" t="n">
-        <v>-81952.8496614679</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4825,15 @@
         <v>2499.9256</v>
       </c>
       <c r="G145" t="n">
-        <v>-81952.8496614679</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4855,15 @@
         <v>4562.218</v>
       </c>
       <c r="G146" t="n">
-        <v>-86515.0676614679</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4885,15 @@
         <v>538</v>
       </c>
       <c r="G147" t="n">
-        <v>-85977.0676614679</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4915,15 @@
         <v>127.7035</v>
       </c>
       <c r="G148" t="n">
-        <v>-85977.0676614679</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4945,21 @@
         <v>630.2430000000001</v>
       </c>
       <c r="G149" t="n">
-        <v>-86607.3106614679</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>259.5</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4981,19 @@
         <v>6401.2707</v>
       </c>
       <c r="G150" t="n">
-        <v>-80206.0399614679</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5015,21 @@
         <v>17.7908</v>
       </c>
       <c r="G151" t="n">
-        <v>-80206.0399614679</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>259.5</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5051,19 @@
         <v>4930.164</v>
       </c>
       <c r="G152" t="n">
-        <v>-80206.0399614679</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5085,21 @@
         <v>2000</v>
       </c>
       <c r="G153" t="n">
-        <v>-78206.0399614679</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>259.5</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5121,19 @@
         <v>55.5097</v>
       </c>
       <c r="G154" t="n">
-        <v>-78206.0399614679</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5155,19 @@
         <v>44.4903</v>
       </c>
       <c r="G155" t="n">
-        <v>-78206.0399614679</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5189,19 @@
         <v>500</v>
       </c>
       <c r="G156" t="n">
-        <v>-78706.0399614679</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5223,19 @@
         <v>741.2</v>
       </c>
       <c r="G157" t="n">
-        <v>-78706.0399614679</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,22 +5257,19 @@
         <v>2</v>
       </c>
       <c r="G158" t="n">
-        <v>-78704.0399614679</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="J158" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5633,26 +5291,19 @@
         <v>387.5633</v>
       </c>
       <c r="G159" t="n">
-        <v>-78704.0399614679</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>262</v>
-      </c>
-      <c r="J159" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="K159" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5674,24 +5325,19 @@
         <v>1910.7</v>
       </c>
       <c r="G160" t="n">
-        <v>-80614.7399614679</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5713,18 +5359,19 @@
         <v>92.55840000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>-80614.7399614679</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5746,18 +5393,19 @@
         <v>92.55840000000001</v>
       </c>
       <c r="G162" t="n">
-        <v>-80707.2983614679</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5779,18 +5427,19 @@
         <v>1831.2576</v>
       </c>
       <c r="G163" t="n">
-        <v>-80707.2983614679</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5812,22 +5461,19 @@
         <v>169.9973</v>
       </c>
       <c r="G164" t="n">
-        <v>-80707.2983614679</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="J164" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5849,26 +5495,19 @@
         <v>3034.8305</v>
       </c>
       <c r="G165" t="n">
-        <v>-80707.2983614679</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="J165" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5890,26 +5529,19 @@
         <v>183.3032</v>
       </c>
       <c r="G166" t="n">
-        <v>-80523.9951614679</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="J166" t="n">
-        <v>259.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
